--- a/translations_for_ui.xlsx
+++ b/translations_for_ui.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="404">
   <si>
     <t>_name</t>
   </si>
@@ -1228,6 +1228,9 @@
   </si>
   <si>
     <t>exc VAT (from 250 BYN)</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -1633,8 +1636,8 @@
   </sheetPr>
   <dimension ref="A1:Z685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7637,9 +7640,8 @@
       <c r="C163" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="D163" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A163,""ru"",""en"")"),"A comment")</f>
-        <v>A comment</v>
+      <c r="D163" s="20" t="s">
+        <v>403</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>

--- a/translations_for_ui.xlsx
+++ b/translations_for_ui.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="411">
   <si>
     <t>_name</t>
   </si>
@@ -915,9 +915,6 @@
     <t>您的帐户</t>
   </si>
   <si>
-    <t>создан. Для входа используйте:</t>
-  </si>
-  <si>
     <t>创建。要登录，请使用：</t>
   </si>
   <si>
@@ -1155,21 +1152,12 @@
     <t>重复订单</t>
   </si>
   <si>
-    <t>Нет товаров в данной категории</t>
-  </si>
-  <si>
-    <t>此类别中没有产品</t>
-  </si>
-  <si>
     <t>Показать еще</t>
   </si>
   <si>
     <t>显示更多</t>
   </si>
   <si>
-    <t>show more</t>
-  </si>
-  <si>
     <t>Дата</t>
   </si>
   <si>
@@ -1231,6 +1219,39 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Your order number</t>
+  </si>
+  <si>
+    <t>Soon, our manager will contact you to clarify the delivery details.</t>
+  </si>
+  <si>
+    <t>создан. Для входа используйте</t>
+  </si>
+  <si>
+    <t>created. Use:</t>
+  </si>
+  <si>
+    <t>Cart is empty</t>
+  </si>
+  <si>
+    <t>Goods are added to the cart!</t>
+  </si>
+  <si>
+    <t>Go to the cart</t>
+  </si>
+  <si>
+    <t>Нет товаров в данной категории. Измените параметры поиска.</t>
+  </si>
+  <si>
+    <t>该类别中没有产品。更改搜索参数。</t>
+  </si>
+  <si>
+    <t>No goods in this category. Change the search parameters.</t>
+  </si>
+  <si>
+    <t>Show more</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1305,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1315,8 +1336,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1352,11 +1379,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1416,6 +1458,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1636,8 +1690,8 @@
   </sheetPr>
   <dimension ref="A1:Z685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1806,7 +1860,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -6502,7 +6556,7 @@
         <v>263</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
@@ -7042,17 +7096,16 @@
     </row>
     <row r="147" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C147" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B147" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D147" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A147,""ru"",""en"")"),"Created. Use:")</f>
-        <v>Created. Use:</v>
+      <c r="D147" s="20" t="s">
+        <v>403</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
@@ -7079,13 +7132,13 @@
     </row>
     <row r="148" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C148" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>301</v>
       </c>
       <c r="D148" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A148,""ru"",""en"")"),"Login")</f>
@@ -7116,13 +7169,13 @@
     </row>
     <row r="149" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C149" s="9" t="s">
         <v>302</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>303</v>
       </c>
       <c r="D149" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A149,""ru"",""en"")"),"Password")</f>
@@ -7153,13 +7206,13 @@
     </row>
     <row r="150" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>304</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>305</v>
       </c>
       <c r="D150" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A150,""ru"",""en"")"),"Full name")</f>
@@ -7190,16 +7243,16 @@
     </row>
     <row r="151" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C151" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B151" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C151" s="9" t="s">
+      <c r="D151" s="12" t="s">
         <v>307</v>
-      </c>
-      <c r="D151" s="12" t="s">
-        <v>308</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
@@ -7226,13 +7279,13 @@
     </row>
     <row r="152" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C152" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>310</v>
       </c>
       <c r="D152" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A152,""ru"",""en"")"),"Delivery address")</f>
@@ -7263,13 +7316,13 @@
     </row>
     <row r="153" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C153" s="9" t="s">
         <v>311</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>312</v>
       </c>
       <c r="D153" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A153,""ru"",""en"")"),"Account has been successfully edited!")</f>
@@ -7298,19 +7351,18 @@
       <c r="Y153" s="6"/>
       <c r="Z153" s="6"/>
     </row>
-    <row r="154" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C154" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B154" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D154" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A154,""ru"",""en"")"),"Goods are added to the basket!")</f>
-        <v>Goods are added to the basket!</v>
+      <c r="D154" s="20" t="s">
+        <v>405</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -7337,16 +7389,16 @@
     </row>
     <row r="155" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B155" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="C155" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="D155" s="13" t="s">
         <v>317</v>
-      </c>
-      <c r="D155" s="13" t="s">
-        <v>318</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -7373,17 +7425,16 @@
     </row>
     <row r="156" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C156" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B156" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D156" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A156,""ru"",""en"")"),"Go to the basket")</f>
-        <v>Go to the basket</v>
+      <c r="D156" s="20" t="s">
+        <v>406</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
@@ -7410,13 +7461,13 @@
     </row>
     <row r="157" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C157" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="D157" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A157,""ru"",""en"")"),"Empty trash?")</f>
@@ -7447,13 +7498,13 @@
     </row>
     <row r="158" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C158" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="D158" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A158,""ru"",""en"")"),"Yes")</f>
@@ -7484,13 +7535,13 @@
     </row>
     <row r="159" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C159" s="9" t="s">
         <v>325</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="D159" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A159,""ru"",""en"")"),"Price with VAT")</f>
@@ -7521,13 +7572,13 @@
     </row>
     <row r="160" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C160" s="9" t="s">
         <v>327</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>328</v>
       </c>
       <c r="D160" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A160,""ru"",""en"")"),"Price without VAT")</f>
@@ -7558,13 +7609,13 @@
     </row>
     <row r="161" spans="1:26" ht="39" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C161" s="9" t="s">
         <v>329</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>330</v>
       </c>
       <c r="D161" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A161,""ru"",""en"")"),"Price excluding VAT at the total order amount from 250 BYN")</f>
@@ -7595,13 +7646,13 @@
     </row>
     <row r="162" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C162" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>332</v>
       </c>
       <c r="D162" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A162,""ru"",""en"")"),"Payment method:")</f>
@@ -7632,16 +7683,16 @@
     </row>
     <row r="163" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C163" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>334</v>
-      </c>
       <c r="D163" s="20" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
@@ -7668,13 +7719,13 @@
     </row>
     <row r="164" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C164" s="9" t="s">
         <v>335</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>336</v>
       </c>
       <c r="D164" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A164,""ru"",""en"")"),"Delivery:")</f>
@@ -7705,16 +7756,16 @@
     </row>
     <row r="165" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C165" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="B165" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>338</v>
-      </c>
       <c r="D165" s="10" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
@@ -7741,16 +7792,16 @@
     </row>
     <row r="166" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C166" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="B166" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>340</v>
-      </c>
       <c r="D166" s="10" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
@@ -7777,13 +7828,13 @@
     </row>
     <row r="167" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C167" s="9" t="s">
         <v>341</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>342</v>
       </c>
       <c r="D167" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A167,""ru"",""en"")"),"The order has been sent!")</f>
@@ -7814,17 +7865,16 @@
     </row>
     <row r="168" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C168" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B168" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D168" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A168,""ru"",""en"")"),"Your room number")</f>
-        <v>Your room number</v>
+      <c r="D168" s="20" t="s">
+        <v>400</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -7851,13 +7901,13 @@
     </row>
     <row r="169" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C169" s="9" t="s">
         <v>345</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>346</v>
       </c>
       <c r="D169" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A169,""ru"",""en"")"),"Order confirmation sent to your email:")</f>
@@ -7888,17 +7938,16 @@
     </row>
     <row r="170" spans="1:26" ht="39" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C170" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B170" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D170" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A170,""ru"",""en"")"),"In the near future, our manager will contact you to clarify the delivery details.")</f>
-        <v>In the near future, our manager will contact you to clarify the delivery details.</v>
+      <c r="D170" s="21" t="s">
+        <v>401</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -7925,13 +7974,13 @@
     </row>
     <row r="171" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C171" s="9" t="s">
         <v>349</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>350</v>
       </c>
       <c r="D171" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A171,""ru"",""en"")"),"An error has occurred!")</f>
@@ -7962,13 +8011,13 @@
     </row>
     <row r="172" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C172" s="9" t="s">
         <v>351</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>352</v>
       </c>
       <c r="D172" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A172,""ru"",""en"")"),"Your order is not sent")</f>
@@ -7999,13 +8048,13 @@
     </row>
     <row r="173" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C173" s="9" t="s">
         <v>353</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>354</v>
       </c>
       <c r="D173" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A173,""ru"",""en"")"),"Contact your support service or try later.")</f>
@@ -8036,13 +8085,13 @@
     </row>
     <row r="174" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C174" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>356</v>
       </c>
       <c r="D174" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A174,""ru"",""en"")"),"Close")</f>
@@ -8073,13 +8122,13 @@
     </row>
     <row r="175" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C175" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>358</v>
       </c>
       <c r="D175" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A175,""ru"",""en"")"),"Photo")</f>
@@ -8110,13 +8159,13 @@
     </row>
     <row r="176" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C176" s="9" t="s">
         <v>359</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>360</v>
       </c>
       <c r="D176" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A176,""ru"",""en"")"),"Name")</f>
@@ -8147,13 +8196,13 @@
     </row>
     <row r="177" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C177" s="9" t="s">
         <v>361</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>362</v>
       </c>
       <c r="D177" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A177,""ru"",""en"")"),"Count")</f>
@@ -8184,13 +8233,13 @@
     </row>
     <row r="178" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C178" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="D178" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A178,""ru"",""en"")"),"Price")</f>
@@ -8221,16 +8270,16 @@
     </row>
     <row r="179" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C179" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B179" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>366</v>
-      </c>
       <c r="D179" s="20" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
@@ -8257,17 +8306,16 @@
     </row>
     <row r="180" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C180" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="B180" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D180" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A180,""ru"",""en"")"),"Basket empty")</f>
-        <v>Basket empty</v>
+      <c r="D180" s="10" t="s">
+        <v>404</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
@@ -8294,13 +8342,13 @@
     </row>
     <row r="181" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C181" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>370</v>
       </c>
       <c r="D181" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A181,""ru"",""en"")"),"Password restored!")</f>
@@ -8331,13 +8379,13 @@
     </row>
     <row r="182" spans="1:26" ht="39" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B182" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="C182" s="9" t="s">
         <v>372</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>373</v>
       </c>
       <c r="D182" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A182,""ru"",""en"")"),"The password is sent to you on email. Please check your mailbox.")</f>
@@ -8405,13 +8453,13 @@
     </row>
     <row r="184" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C184" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>375</v>
       </c>
       <c r="D184" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A184,""ru"",""en"")"),"Order No.")</f>
@@ -8440,15 +8488,15 @@
       <c r="Y184" s="6"/>
       <c r="Z184" s="6"/>
     </row>
-    <row r="185" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C185" s="9" t="s">
         <v>376</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>377</v>
       </c>
       <c r="D185" s="10" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A185,""ru"",""en"")"),"Repeat order")</f>
@@ -8477,19 +8525,18 @@
       <c r="Y185" s="6"/>
       <c r="Z185" s="6"/>
     </row>
-    <row r="186" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="D186" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A186,""ru"",""en"")"),"No goods in this category")</f>
-        <v>No goods in this category</v>
+        <v>407</v>
+      </c>
+      <c r="B186" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="C186" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="D186" s="24" t="s">
+        <v>409</v>
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
@@ -8516,16 +8563,16 @@
     </row>
     <row r="187" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
@@ -8552,16 +8599,16 @@
     </row>
     <row r="188" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
@@ -8588,16 +8635,16 @@
     </row>
     <row r="189" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="15" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D189" s="18" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
@@ -8624,16 +8671,16 @@
     </row>
     <row r="190" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="15" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D190" s="18" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
@@ -8660,16 +8707,16 @@
     </row>
     <row r="191" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="15" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
@@ -8696,16 +8743,16 @@
     </row>
     <row r="192" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D192" s="18" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>

--- a/translations_for_ui.xlsx
+++ b/translations_for_ui.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_projects\Bortic Project\bortik-project-dev\server\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
-  </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="494">
   <si>
     <t>_name</t>
   </si>
@@ -1338,6 +1330,9 @@
     <t>未找到！</t>
   </si>
   <si>
+    <t>not found!</t>
+  </si>
+  <si>
     <t>Неизвестная ошибка! Обратитесь в службу поддержки.</t>
   </si>
   <si>
@@ -1407,6 +1402,9 @@
     <t>输入密码</t>
   </si>
   <si>
+    <t>Enter password</t>
+  </si>
+  <si>
     <t>Повторите пароль</t>
   </si>
   <si>
@@ -1461,57 +1459,71 @@
     <t>Repeat new password*</t>
   </si>
   <si>
-    <t>Enter password</t>
-  </si>
-  <si>
-    <t>not found!</t>
+    <t>Неверный пароль</t>
+  </si>
+  <si>
+    <t>无效的密码</t>
+  </si>
+  <si>
+    <t>Invalid password</t>
+  </si>
+  <si>
+    <t>Неверный логин или пароль</t>
+  </si>
+  <si>
+    <t>错误的登录名或密码</t>
+  </si>
+  <si>
+    <t>Wrong login or password</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Удалить товар из корзины?</t>
+  </si>
+  <si>
+    <t>从购物车中移除商品？</t>
+  </si>
+  <si>
+    <t>Remove item from the cart?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1519,7 +1531,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1547,13 +1559,7 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1567,10 +1573,8 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1580,82 +1584,83 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+  <cellXfs count="19">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1845,31 +1850,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="F201" sqref="F201"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="71.5703125" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="71.57"/>
+    <col customWidth="1" min="2" max="2" width="48.71"/>
+    <col customWidth="1" min="3" max="3" width="29.14"/>
+    <col customWidth="1" min="4" max="4" width="26.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A2,""ru"",""en"")"),"Catalog")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A2,""ru"",""en"")"),"Catalog")</f>
         <v>Catalog</v>
       </c>
       <c r="E2" s="6"/>
@@ -1942,7 +1942,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A3,""ru"",""en"")"),"Stationery")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A3,""ru"",""en"")"),"Stationery")</f>
         <v>Stationery</v>
       </c>
       <c r="E3" s="5"/>
@@ -1979,7 +1979,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A4,""ru"",""en"")"),"Household goods")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A4,""ru"",""en"")"),"Household goods")</f>
         <v>Household goods</v>
       </c>
       <c r="E4" s="6"/>
@@ -2016,7 +2016,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2052,7 +2052,7 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A6,""ru"",""en"")"),"Paper products")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A6,""ru"",""en"")"),"Paper products")</f>
         <v>Paper products</v>
       </c>
       <c r="E6" s="6"/>
@@ -2089,7 +2089,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A7,""ru"",""en"")"),"Diaries and notebooks")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A7,""ru"",""en"")"),"Diaries and notebooks")</f>
         <v>Diaries and notebooks</v>
       </c>
       <c r="E7" s="5"/>
@@ -2126,7 +2126,7 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A9,""ru"",""en"")"),"Organization of workplace")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A9,""ru"",""en"")"),"Organization of workplace")</f>
         <v>Organization of workplace</v>
       </c>
       <c r="E9" s="5"/>
@@ -2199,7 +2199,7 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A10,""ru"",""en"")"),"Folders and Cases")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A10,""ru"",""en"")"),"Folders and Cases")</f>
         <v>Folders and Cases</v>
       </c>
       <c r="E10" s="6"/>
@@ -2236,7 +2236,7 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A11,""ru"",""en"")"),"Written accessories")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A11,""ru"",""en"")"),"Written accessories")</f>
         <v>Written accessories</v>
       </c>
       <c r="E11" s="5"/>
@@ -2273,7 +2273,7 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A12,""ru"",""en"")"),"Paper-hygienic products")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A12,""ru"",""en"")"),"Paper-hygienic products")</f>
         <v>Paper-hygienic products</v>
       </c>
       <c r="E12" s="6"/>
@@ -2310,7 +2310,7 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A13,""ru"",""en"")"),"Household chemicals")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A13,""ru"",""en"")"),"Household chemicals")</f>
         <v>Household chemicals</v>
       </c>
       <c r="E13" s="5"/>
@@ -2347,7 +2347,7 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A14,""ru"",""en"")"),"Dispensers and dispensers for public bathrooms")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A14,""ru"",""en"")"),"Dispensers and dispensers for public bathrooms")</f>
         <v>Dispensers and dispensers for public bathrooms</v>
       </c>
       <c r="E14" s="6"/>
@@ -2384,7 +2384,7 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>33</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A15,""ru"",""en"")"),"Disposable tableware")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A15,""ru"",""en"")"),"Disposable tableware")</f>
         <v>Disposable tableware</v>
       </c>
       <c r="E15" s="5"/>
@@ -2421,7 +2421,7 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A16,""ru"",""en"")"),"Overalls and gloves")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A16,""ru"",""en"")"),"Overalls and gloves")</f>
         <v>Overalls and gloves</v>
       </c>
       <c r="E16" s="6"/>
@@ -2458,7 +2458,7 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A17,""ru"",""en"")"),"Goods for kitchen, catering and cleaning")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A17,""ru"",""en"")"),"Goods for kitchen, catering and cleaning")</f>
         <v>Goods for kitchen, catering and cleaning</v>
       </c>
       <c r="E17" s="5"/>
@@ -2495,7 +2495,7 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A18,""ru"",""en"")"),"Products for packaging and packing")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A18,""ru"",""en"")"),"Products for packaging and packing")</f>
         <v>Products for packaging and packing</v>
       </c>
       <c r="E18" s="6"/>
@@ -2532,7 +2532,7 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A19,""ru"",""en"")"),"Household goods")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A19,""ru"",""en"")"),"Household goods")</f>
         <v>Household goods</v>
       </c>
       <c r="E19" s="5"/>
@@ -2569,7 +2569,7 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A20,""ru"",""en"")"),"Paper for notes")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A20,""ru"",""en"")"),"Paper for notes")</f>
         <v>Paper for notes</v>
       </c>
       <c r="E20" s="6"/>
@@ -2606,7 +2606,7 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A21,""ru"",""en"")"),"Paper for fax")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A21,""ru"",""en"")"),"Paper for fax")</f>
         <v>Paper for fax</v>
       </c>
       <c r="E21" s="5"/>
@@ -2643,7 +2643,7 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="7" t="s">
         <v>44</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A22,""ru"",""en"")"),"Bookmarks")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A22,""ru"",""en"")"),"Bookmarks")</f>
         <v>Bookmarks</v>
       </c>
       <c r="E22" s="6"/>
@@ -2680,7 +2680,7 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>47</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A23,""ru"",""en"")"),"Envelopes")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A23,""ru"",""en"")"),"Envelopes")</f>
         <v>Envelopes</v>
       </c>
       <c r="E23" s="5"/>
@@ -2717,7 +2717,7 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="7" t="s">
         <v>48</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A24,""ru"",""en"")"),"Office paper")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A24,""ru"",""en"")"),"Office paper")</f>
         <v>Office paper</v>
       </c>
       <c r="E24" s="6"/>
@@ -2754,7 +2754,7 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="7" t="s">
         <v>50</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>51</v>
       </c>
       <c r="D25" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A25,""ru"",""en"")"),"Other")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A25,""ru"",""en"")"),"Other")</f>
         <v>Other</v>
       </c>
       <c r="E25" s="5"/>
@@ -2791,7 +2791,7 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="7" t="s">
         <v>52</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>53</v>
       </c>
       <c r="D26" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A26,""ru"",""en"")"),"Check tape")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A26,""ru"",""en"")"),"Check tape")</f>
         <v>Check tape</v>
       </c>
       <c r="E26" s="6"/>
@@ -2828,7 +2828,7 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="7" t="s">
         <v>54</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>55</v>
       </c>
       <c r="D27" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A27,""ru"",""en"")"),"Notepad")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A27,""ru"",""en"")"),"Notepad")</f>
         <v>Notepad</v>
       </c>
       <c r="E27" s="5"/>
@@ -2865,7 +2865,7 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="7" t="s">
         <v>56</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>57</v>
       </c>
       <c r="D28" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A28,""ru"",""en"")"),"Daily mines are undated")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A28,""ru"",""en"")"),"Daily mines are undated")</f>
         <v>Daily mines are undated</v>
       </c>
       <c r="E28" s="6"/>
@@ -2902,7 +2902,7 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="7" t="s">
         <v>58</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A29,""ru"",""en"")"),"Tetradi.")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A29,""ru"",""en"")"),"Tetradi.")</f>
         <v>Tetradi.</v>
       </c>
       <c r="E29" s="5"/>
@@ -2939,7 +2939,7 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="7" t="s">
         <v>60</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>61</v>
       </c>
       <c r="D30" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A30,""ru"",""en"")"),"Badges, Lanyarda")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A30,""ru"",""en"")"),"Badges, Lanyarda")</f>
         <v>Badges, Lanyarda</v>
       </c>
       <c r="E30" s="6"/>
@@ -2976,7 +2976,7 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="7" t="s">
         <v>62</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>63</v>
       </c>
       <c r="D31" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A31,""ru"",""en"")"),"Business card holders")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A31,""ru"",""en"")"),"Business card holders")</f>
         <v>Business card holders</v>
       </c>
       <c r="E31" s="5"/>
@@ -3013,7 +3013,7 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="7" t="s">
         <v>64</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>65</v>
       </c>
       <c r="D32" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A32,""ru"",""en"")"),"Piecole")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A32,""ru"",""en"")"),"Piecole")</f>
         <v>Piecole</v>
       </c>
       <c r="E32" s="6"/>
@@ -3050,7 +3050,7 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>67</v>
       </c>
       <c r="D33" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A33,""ru"",""en"")"),"Clips for papers")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A33,""ru"",""en"")"),"Clips for papers")</f>
         <v>Clips for papers</v>
       </c>
       <c r="E33" s="5"/>
@@ -3087,7 +3087,7 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>69</v>
       </c>
       <c r="D34" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A34,""ru"",""en"")"),"Stationery trivia")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A34,""ru"",""en"")"),"Stationery trivia")</f>
         <v>Stationery trivia</v>
       </c>
       <c r="E34" s="6"/>
@@ -3124,7 +3124,7 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" s="7" t="s">
         <v>70</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>71</v>
       </c>
       <c r="D35" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A35,""ru"",""en"")"),"Glue")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A35,""ru"",""en"")"),"Glue")</f>
         <v>Glue</v>
       </c>
       <c r="E35" s="5"/>
@@ -3161,7 +3161,7 @@
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" s="7" t="s">
         <v>72</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>73</v>
       </c>
       <c r="D36" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A36,""ru"",""en"")"),"Adhesive tapes and dispensers")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A36,""ru"",""en"")"),"Adhesive tapes and dispensers")</f>
         <v>Adhesive tapes and dispensers</v>
       </c>
       <c r="E36" s="6"/>
@@ -3198,7 +3198,7 @@
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" s="7" t="s">
         <v>74</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>75</v>
       </c>
       <c r="D37" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A37,""ru"",""en"")"),"Correctors")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A37,""ru"",""en"")"),"Correctors")</f>
         <v>Correctors</v>
       </c>
       <c r="E37" s="5"/>
@@ -3235,7 +3235,7 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" s="7" t="s">
         <v>76</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>77</v>
       </c>
       <c r="D38" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A38,""ru"",""en"")"),"Eraser")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A38,""ru"",""en"")"),"Eraser")</f>
         <v>Eraser</v>
       </c>
       <c r="E38" s="6"/>
@@ -3272,7 +3272,7 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
     </row>
-    <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" s="7" t="s">
         <v>78</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>79</v>
       </c>
       <c r="D39" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A39,""ru"",""en"")"),"Rulers, squares")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A39,""ru"",""en"")"),"Rulers, squares")</f>
         <v>Rulers, squares</v>
       </c>
       <c r="E39" s="5"/>
@@ -3309,7 +3309,7 @@
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
     </row>
-    <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" s="7" t="s">
         <v>80</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>81</v>
       </c>
       <c r="D40" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A40,""ru"",""en"")"),"Knives and blades")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A40,""ru"",""en"")"),"Knives and blades")</f>
         <v>Knives and blades</v>
       </c>
       <c r="E40" s="6"/>
@@ -3346,7 +3346,7 @@
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
     </row>
-    <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" s="7" t="s">
         <v>82</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>83</v>
       </c>
       <c r="D41" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A41,""ru"",""en"")"),"Scissors")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A41,""ru"",""en"")"),"Scissors")</f>
         <v>Scissors</v>
       </c>
       <c r="E41" s="5"/>
@@ -3383,7 +3383,7 @@
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
     </row>
-    <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" s="7" t="s">
         <v>84</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>85</v>
       </c>
       <c r="D42" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A42,""ru"",""en"")"),"Other little things")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A42,""ru"",""en"")"),"Other little things")</f>
         <v>Other little things</v>
       </c>
       <c r="E42" s="6"/>
@@ -3420,7 +3420,7 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
     </row>
-    <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="7" t="s">
         <v>86</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>87</v>
       </c>
       <c r="D43" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A43,""ru"",""en"")"),"Slays")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A43,""ru"",""en"")"),"Slays")</f>
         <v>Slays</v>
       </c>
       <c r="E43" s="5"/>
@@ -3457,7 +3457,7 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
     </row>
-    <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="7" t="s">
         <v>88</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>89</v>
       </c>
       <c r="D44" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A44,""ru"",""en"")"),"Staplers and antispolers")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A44,""ru"",""en"")"),"Staplers and antispolers")</f>
         <v>Staplers and antispolers</v>
       </c>
       <c r="E44" s="6"/>
@@ -3494,7 +3494,7 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
     </row>
-    <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" s="7" t="s">
         <v>90</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>91</v>
       </c>
       <c r="D45" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A45,""ru"",""en"")"),"Sharpeners")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A45,""ru"",""en"")"),"Sharpeners")</f>
         <v>Sharpeners</v>
       </c>
       <c r="E45" s="5"/>
@@ -3531,7 +3531,7 @@
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
     </row>
-    <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="7" t="s">
         <v>92</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>93</v>
       </c>
       <c r="D46" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A46,""ru"",""en"")"),"Stamped products")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A46,""ru"",""en"")"),"Stamped products")</f>
         <v>Stamped products</v>
       </c>
       <c r="E46" s="6"/>
@@ -3568,7 +3568,7 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
-    <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="7" t="s">
         <v>94</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>95</v>
       </c>
       <c r="D47" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A47,""ru"",""en"")"),"Boards")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A47,""ru"",""en"")"),"Boards")</f>
         <v>Boards</v>
       </c>
       <c r="E47" s="5"/>
@@ -3605,7 +3605,7 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
     </row>
-    <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" s="7" t="s">
         <v>96</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>97</v>
       </c>
       <c r="D48" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A48,""ru"",""en"")"),"Calculators")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A48,""ru"",""en"")"),"Calculators")</f>
         <v>Calculators</v>
       </c>
       <c r="E48" s="6"/>
@@ -3642,7 +3642,7 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="7" t="s">
         <v>98</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>99</v>
       </c>
       <c r="D49" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A49,""ru"",""en"")"),"Trays for papers")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A49,""ru"",""en"")"),"Trays for papers")</f>
         <v>Trays for papers</v>
       </c>
       <c r="E49" s="5"/>
@@ -3679,7 +3679,7 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="7" t="s">
         <v>100</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>101</v>
       </c>
       <c r="D50" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A50,""ru"",""en"")"),"Desktop stands")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A50,""ru"",""en"")"),"Desktop stands")</f>
         <v>Desktop stands</v>
       </c>
       <c r="E50" s="6"/>
@@ -3716,7 +3716,7 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="7" t="s">
         <v>102</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>103</v>
       </c>
       <c r="D51" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A51,""ru"",""en"")"),"Office equipment care products")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A51,""ru"",""en"")"),"Office equipment care products")</f>
         <v>Office equipment care products</v>
       </c>
       <c r="E51" s="5"/>
@@ -3753,7 +3753,7 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="7" t="s">
         <v>104</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>105</v>
       </c>
       <c r="D52" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A52,""ru"",""en"")"),"Archive boxes")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A52,""ru"",""en"")"),"Archive boxes")</f>
         <v>Archive boxes</v>
       </c>
       <c r="E52" s="6"/>
@@ -3790,7 +3790,7 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
     </row>
-    <row r="53" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" s="7" t="s">
         <v>106</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>107</v>
       </c>
       <c r="D53" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A53,""ru"",""en"")"),"Office plates")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A53,""ru"",""en"")"),"Office plates")</f>
         <v>Office plates</v>
       </c>
       <c r="E53" s="5"/>
@@ -3827,7 +3827,7 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="7" t="s">
         <v>108</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>109</v>
       </c>
       <c r="D54" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A54,""ru"",""en"")"),"Folders deal, with ties, etc.")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A54,""ru"",""en"")"),"Folders deal, with ties, etc.")</f>
         <v>Folders deal, with ties, etc.</v>
       </c>
       <c r="E54" s="6"/>
@@ -3864,7 +3864,7 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" s="7" t="s">
         <v>110</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>111</v>
       </c>
       <c r="D55" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A55,""ru"",""en"")"),"Folders on rubber bands")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A55,""ru"",""en"")"),"Folders on rubber bands")</f>
         <v>Folders on rubber bands</v>
       </c>
       <c r="E55" s="5"/>
@@ -3901,7 +3901,7 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" s="7" t="s">
         <v>112</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>113</v>
       </c>
       <c r="D56" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A56,""ru"",""en"")"),"Folders with strings")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A56,""ru"",""en"")"),"Folders with strings")</f>
         <v>Folders with strings</v>
       </c>
       <c r="E56" s="6"/>
@@ -3938,7 +3938,7 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" s="7" t="s">
         <v>114</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>115</v>
       </c>
       <c r="D57" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A57,""ru"",""en"")"),"Folders with clamps")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A57,""ru"",""en"")"),"Folders with clamps")</f>
         <v>Folders with clamps</v>
       </c>
       <c r="E57" s="5"/>
@@ -3975,7 +3975,7 @@
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="7" t="s">
         <v>116</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>117</v>
       </c>
       <c r="D58" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A58,""ru"",""en"")"),"Folders with files")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A58,""ru"",""en"")"),"Folders with files")</f>
         <v>Folders with files</v>
       </c>
       <c r="E58" s="6"/>
@@ -4012,7 +4012,7 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="7" t="s">
         <v>118</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>119</v>
       </c>
       <c r="D59" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A59,""ru"",""en"")"),"Envelse folders")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A59,""ru"",""en"")"),"Envelse folders")</f>
         <v>Envelse folders</v>
       </c>
       <c r="E59" s="5"/>
@@ -4049,7 +4049,7 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
     </row>
-    <row r="60" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" s="7" t="s">
         <v>120</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>121</v>
       </c>
       <c r="D60" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A60,""ru"",""en"")"),"Record folders")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A60,""ru"",""en"")"),"Record folders")</f>
         <v>Record folders</v>
       </c>
       <c r="E60" s="6"/>
@@ -4086,7 +4086,7 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
     </row>
-    <row r="61" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" s="7" t="s">
         <v>122</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>123</v>
       </c>
       <c r="D61" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A61,""ru"",""en"")"),"Folders-folders")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A61,""ru"",""en"")"),"Folders-folders")</f>
         <v>Folders-folders</v>
       </c>
       <c r="E61" s="5"/>
@@ -4123,7 +4123,7 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
     </row>
-    <row r="62" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="7" t="s">
         <v>124</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>125</v>
       </c>
       <c r="D62" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A62,""ru"",""en"")"),"Folders corner")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A62,""ru"",""en"")"),"Folders corner")</f>
         <v>Folders corner</v>
       </c>
       <c r="E62" s="6"/>
@@ -4160,7 +4160,7 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" s="7" t="s">
         <v>126</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>127</v>
       </c>
       <c r="D63" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A63,""ru"",""en"")"),"Files")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A63,""ru"",""en"")"),"Files")</f>
         <v>Files</v>
       </c>
       <c r="E63" s="5"/>
@@ -4197,7 +4197,7 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" s="7" t="s">
         <v>128</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>129</v>
       </c>
       <c r="D64" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A64,""ru"",""en"")"),"Automatic pencils")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A64,""ru"",""en"")"),"Automatic pencils")</f>
         <v>Automatic pencils</v>
       </c>
       <c r="E64" s="6"/>
@@ -4234,7 +4234,7 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" s="7" t="s">
         <v>130</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>131</v>
       </c>
       <c r="D65" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A65,""ru"",""en"")"),"Automatic ballpoints")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A65,""ru"",""en"")"),"Automatic ballpoints")</f>
         <v>Automatic ballpoints</v>
       </c>
       <c r="E65" s="5"/>
@@ -4271,7 +4271,7 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" s="7" t="s">
         <v>132</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>133</v>
       </c>
       <c r="D66" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A66,""ru"",""en"")"),"Gel knots")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A66,""ru"",""en"")"),"Gel knots")</f>
         <v>Gel knots</v>
       </c>
       <c r="E66" s="6"/>
@@ -4308,7 +4308,7 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" s="7" t="s">
         <v>134</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>135</v>
       </c>
       <c r="D67" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A67,""ru"",""en"")"),"Griffel for autocarands")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A67,""ru"",""en"")"),"Griffel for autocarands")</f>
         <v>Griffel for autocarands</v>
       </c>
       <c r="E67" s="5"/>
@@ -4345,7 +4345,7 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" s="7" t="s">
         <v>136</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>137</v>
       </c>
       <c r="D68" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A68,""ru"",""en"")"),"Markers for magnetic boards and flipcharts")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A68,""ru"",""en"")"),"Markers for magnetic boards and flipcharts")</f>
         <v>Markers for magnetic boards and flipcharts</v>
       </c>
       <c r="E68" s="6"/>
@@ -4382,7 +4382,7 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" s="7" t="s">
         <v>138</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>139</v>
       </c>
       <c r="D69" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A69,""ru"",""en"")"),"Non-automatic ballpoint handles")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A69,""ru"",""en"")"),"Non-automatic ballpoint handles")</f>
         <v>Non-automatic ballpoint handles</v>
       </c>
       <c r="E69" s="5"/>
@@ -4419,7 +4419,7 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" s="7" t="s">
         <v>140</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>141</v>
       </c>
       <c r="D70" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A70,""ru"",""en"")"),"Permanent markers")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A70,""ru"",""en"")"),"Permanent markers")</f>
         <v>Permanent markers</v>
       </c>
       <c r="E70" s="6"/>
@@ -4456,7 +4456,7 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" s="7" t="s">
         <v>142</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>143</v>
       </c>
       <c r="D71" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A71,""ru"",""en"")"),"Simple pencils")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A71,""ru"",""en"")"),"Simple pencils")</f>
         <v>Simple pencils</v>
       </c>
       <c r="E71" s="5"/>
@@ -4493,7 +4493,7 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" s="7" t="s">
         <v>144</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>145</v>
       </c>
       <c r="D72" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A72,""ru"",""en"")"),"Pens on a stand")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A72,""ru"",""en"")"),"Pens on a stand")</f>
         <v>Pens on a stand</v>
       </c>
       <c r="E72" s="6"/>
@@ -4530,7 +4530,7 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" s="7" t="s">
         <v>146</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>147</v>
       </c>
       <c r="D73" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A73,""ru"",""en"")"),"Pigs pigment and capillary")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A73,""ru"",""en"")"),"Pigs pigment and capillary")</f>
         <v>Pigs pigment and capillary</v>
       </c>
       <c r="E73" s="5"/>
@@ -4567,7 +4567,7 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
     </row>
-    <row r="74" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" s="7" t="s">
         <v>148</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>149</v>
       </c>
       <c r="D74" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A74,""ru"",""en"")"),"Special markers")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A74,""ru"",""en"")"),"Special markers")</f>
         <v>Special markers</v>
       </c>
       <c r="E74" s="6"/>
@@ -4604,7 +4604,7 @@
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
     </row>
-    <row r="75" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" s="7" t="s">
         <v>150</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>151</v>
       </c>
       <c r="D75" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A75,""ru"",""en"")"),"Rods for handles")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A75,""ru"",""en"")"),"Rods for handles")</f>
         <v>Rods for handles</v>
       </c>
       <c r="E75" s="5"/>
@@ -4641,7 +4641,7 @@
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
     </row>
-    <row r="76" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" s="7" t="s">
         <v>152</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>153</v>
       </c>
       <c r="D76" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A76,""ru"",""en"")"),"Text markers")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A76,""ru"",""en"")"),"Text markers")</f>
         <v>Text markers</v>
       </c>
       <c r="E76" s="6"/>
@@ -4678,7 +4678,7 @@
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
     </row>
-    <row r="77" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" s="7" t="s">
         <v>154</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>155</v>
       </c>
       <c r="D77" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A77,""ru"",""en"")"),"Feltolsters")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A77,""ru"",""en"")"),"Feltolsters")</f>
         <v>Feltolsters</v>
       </c>
       <c r="E77" s="5"/>
@@ -4715,7 +4715,7 @@
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
     </row>
-    <row r="78" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" s="7" t="s">
         <v>156</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>157</v>
       </c>
       <c r="D78" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A78,""ru"",""en"")"),"Paper towels")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A78,""ru"",""en"")"),"Paper towels")</f>
         <v>Paper towels</v>
       </c>
       <c r="E78" s="6"/>
@@ -4752,7 +4752,7 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" s="7" t="s">
         <v>158</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>157</v>
       </c>
       <c r="D79" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A79,""ru"",""en"")"),"Paper napkins")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A79,""ru"",""en"")"),"Paper napkins")</f>
         <v>Paper napkins</v>
       </c>
       <c r="E79" s="5"/>
@@ -4789,7 +4789,7 @@
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
     </row>
-    <row r="80" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" s="7" t="s">
         <v>159</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>160</v>
       </c>
       <c r="D80" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A80,""ru"",""en"")"),"Other paper products")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A80,""ru"",""en"")"),"Other paper products")</f>
         <v>Other paper products</v>
       </c>
       <c r="E80" s="6"/>
@@ -4826,7 +4826,7 @@
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
     </row>
-    <row r="81" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" s="7" t="s">
         <v>161</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>162</v>
       </c>
       <c r="D81" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A81,""ru"",""en"")"),"Toilet paper")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A81,""ru"",""en"")"),"Toilet paper")</f>
         <v>Toilet paper</v>
       </c>
       <c r="E81" s="5"/>
@@ -4863,7 +4863,7 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
     </row>
-    <row r="82" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" s="7" t="s">
         <v>163</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>164</v>
       </c>
       <c r="D82" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A82,""ru"",""en"")"),"Soap")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A82,""ru"",""en"")"),"Soap")</f>
         <v>Soap</v>
       </c>
       <c r="E82" s="6"/>
@@ -4900,7 +4900,7 @@
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
     </row>
-    <row r="83" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" s="7" t="s">
         <v>165</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>166</v>
       </c>
       <c r="D83" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A83,""ru"",""en"")"),"Air fresheners")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A83,""ru"",""en"")"),"Air fresheners")</f>
         <v>Air fresheners</v>
       </c>
       <c r="E83" s="5"/>
@@ -4937,7 +4937,7 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" s="7" t="s">
         <v>167</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>168</v>
       </c>
       <c r="D84" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A84,""ru"",""en"")"),"Polyrol for furniture")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A84,""ru"",""en"")"),"Polyrol for furniture")</f>
         <v>Polyrol for furniture</v>
       </c>
       <c r="E84" s="6"/>
@@ -4974,7 +4974,7 @@
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
     </row>
-    <row r="85" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" s="7" t="s">
         <v>169</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>170</v>
       </c>
       <c r="D85" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A85,""ru"",""en"")"),"Tools for kitchen")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A85,""ru"",""en"")"),"Tools for kitchen")</f>
         <v>Tools for kitchen</v>
       </c>
       <c r="E85" s="5"/>
@@ -5011,7 +5011,7 @@
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
     </row>
-    <row r="86" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" s="7" t="s">
         <v>171</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>172</v>
       </c>
       <c r="D86" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A86,""ru"",""en"")"),"Floor washing products and walls")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A86,""ru"",""en"")"),"Floor washing products and walls")</f>
         <v>Floor washing products and walls</v>
       </c>
       <c r="E86" s="6"/>
@@ -5048,7 +5048,7 @@
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
     </row>
-    <row r="87" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" s="7" t="s">
         <v>173</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>174</v>
       </c>
       <c r="D87" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A87,""ru"",""en"")"),"Dishwashing")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A87,""ru"",""en"")"),"Dishwashing")</f>
         <v>Dishwashing</v>
       </c>
       <c r="E87" s="5"/>
@@ -5085,7 +5085,7 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
     </row>
-    <row r="88" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" s="7" t="s">
         <v>175</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>176</v>
       </c>
       <c r="D88" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A88,""ru"",""en"")"),"Means for cleaning glasses and mirrors")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A88,""ru"",""en"")"),"Means for cleaning glasses and mirrors")</f>
         <v>Means for cleaning glasses and mirrors</v>
       </c>
       <c r="E88" s="6"/>
@@ -5122,7 +5122,7 @@
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
     </row>
-    <row r="89" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" s="7" t="s">
         <v>177</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>178</v>
       </c>
       <c r="D89" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A89,""ru"",""en"")"),"Means for washing")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A89,""ru"",""en"")"),"Means for washing")</f>
         <v>Means for washing</v>
       </c>
       <c r="E89" s="5"/>
@@ -5159,7 +5159,7 @@
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
     </row>
-    <row r="90" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" s="7" t="s">
         <v>179</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>180</v>
       </c>
       <c r="D90" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A90,""ru"",""en"")"),"Toilets and bathrooms")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A90,""ru"",""en"")"),"Toilets and bathrooms")</f>
         <v>Toilets and bathrooms</v>
       </c>
       <c r="E90" s="6"/>
@@ -5196,7 +5196,7 @@
       <c r="Y90" s="6"/>
       <c r="Z90" s="6"/>
     </row>
-    <row r="91" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" s="7" t="s">
         <v>181</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>182</v>
       </c>
       <c r="D91" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A91,""ru"",""en"")"),"Furniture for carpet cleaning and upholstery")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A91,""ru"",""en"")"),"Furniture for carpet cleaning and upholstery")</f>
         <v>Furniture for carpet cleaning and upholstery</v>
       </c>
       <c r="E91" s="5"/>
@@ -5233,7 +5233,7 @@
       <c r="Y91" s="6"/>
       <c r="Z91" s="6"/>
     </row>
-    <row r="92" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" s="7" t="s">
         <v>183</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>184</v>
       </c>
       <c r="D92" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A92,""ru"",""en"")"),"Pipe cleaning agents")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A92,""ru"",""en"")"),"Pipe cleaning agents")</f>
         <v>Pipe cleaning agents</v>
       </c>
       <c r="E92" s="6"/>
@@ -5270,7 +5270,7 @@
       <c r="Y92" s="6"/>
       <c r="Z92" s="6"/>
     </row>
-    <row r="93" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" s="7" t="s">
         <v>185</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>186</v>
       </c>
       <c r="D93" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A93,""ru"",""en"")"),"Universal cleaning products")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A93,""ru"",""en"")"),"Universal cleaning products")</f>
         <v>Universal cleaning products</v>
       </c>
       <c r="E93" s="5"/>
@@ -5307,7 +5307,7 @@
       <c r="Y93" s="6"/>
       <c r="Z93" s="6"/>
     </row>
-    <row r="94" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" s="7" t="s">
         <v>187</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>188</v>
       </c>
       <c r="D94" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A94,""ru"",""en"")"),"Paper Dispensers")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A94,""ru"",""en"")"),"Paper Dispensers")</f>
         <v>Paper Dispensers</v>
       </c>
       <c r="E94" s="6"/>
@@ -5344,7 +5344,7 @@
       <c r="Y94" s="6"/>
       <c r="Z94" s="6"/>
     </row>
-    <row r="95" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" s="7" t="s">
         <v>189</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>190</v>
       </c>
       <c r="D95" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A95,""ru"",""en"")"),"Dispensers")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A95,""ru"",""en"")"),"Dispensers")</f>
         <v>Dispensers</v>
       </c>
       <c r="E95" s="5"/>
@@ -5381,7 +5381,7 @@
       <c r="Y95" s="6"/>
       <c r="Z95" s="6"/>
     </row>
-    <row r="96" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" s="7" t="s">
         <v>191</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>192</v>
       </c>
       <c r="D96" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A96,""ru"",""en"")"),"Paper packaging")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A96,""ru"",""en"")"),"Paper packaging")</f>
         <v>Paper packaging</v>
       </c>
       <c r="E96" s="6"/>
@@ -5418,7 +5418,7 @@
       <c r="Y96" s="6"/>
       <c r="Z96" s="6"/>
     </row>
-    <row r="97" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" s="7" t="s">
         <v>193</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>194</v>
       </c>
       <c r="D97" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A97,""ru"",""en"")"),"Universal containers")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A97,""ru"",""en"")"),"Universal containers")</f>
         <v>Universal containers</v>
       </c>
       <c r="E97" s="5"/>
@@ -5455,7 +5455,7 @@
       <c r="Y97" s="6"/>
       <c r="Z97" s="6"/>
     </row>
-    <row r="98" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" s="7" t="s">
         <v>195</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>196</v>
       </c>
       <c r="D98" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A98,""ru"",""en"")"),"Covers for glasses")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A98,""ru"",""en"")"),"Covers for glasses")</f>
         <v>Covers for glasses</v>
       </c>
       <c r="E98" s="6"/>
@@ -5492,7 +5492,7 @@
       <c r="Y98" s="6"/>
       <c r="Z98" s="6"/>
     </row>
-    <row r="99" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" s="7" t="s">
         <v>197</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>198</v>
       </c>
       <c r="D99" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A99,""ru"",""en"")"),"Lunch boxes")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A99,""ru"",""en"")"),"Lunch boxes")</f>
         <v>Lunch boxes</v>
       </c>
       <c r="E99" s="5"/>
@@ -5529,7 +5529,7 @@
       <c r="Y99" s="6"/>
       <c r="Z99" s="6"/>
     </row>
-    <row r="100" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" s="7" t="s">
         <v>199</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>200</v>
       </c>
       <c r="D100" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A100,""ru"",""en"")"),"Disposable plastic glasses")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A100,""ru"",""en"")"),"Disposable plastic glasses")</f>
         <v>Disposable plastic glasses</v>
       </c>
       <c r="E100" s="6"/>
@@ -5566,7 +5566,7 @@
       <c r="Y100" s="6"/>
       <c r="Z100" s="6"/>
     </row>
-    <row r="101" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" s="7" t="s">
         <v>201</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>202</v>
       </c>
       <c r="D101" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A101,""ru"",""en"")"),"Food sticks")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A101,""ru"",""en"")"),"Food sticks")</f>
         <v>Food sticks</v>
       </c>
       <c r="E101" s="5"/>
@@ -5603,7 +5603,7 @@
       <c r="Y101" s="6"/>
       <c r="Z101" s="6"/>
     </row>
-    <row r="102" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" s="7" t="s">
         <v>203</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>204</v>
       </c>
       <c r="D102" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A102,""ru"",""en"")"),"Plastic Salad Containers")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A102,""ru"",""en"")"),"Plastic Salad Containers")</f>
         <v>Plastic Salad Containers</v>
       </c>
       <c r="E102" s="6"/>
@@ -5640,7 +5640,7 @@
       <c r="Y102" s="6"/>
       <c r="Z102" s="6"/>
     </row>
-    <row r="103" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" s="7" t="s">
         <v>205</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>206</v>
       </c>
       <c r="D103" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A103,""ru"",""en"")"),"Pat glasses")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A103,""ru"",""en"")"),"Pat glasses")</f>
         <v>Pat glasses</v>
       </c>
       <c r="E103" s="5"/>
@@ -5677,7 +5677,7 @@
       <c r="Y103" s="6"/>
       <c r="Z103" s="6"/>
     </row>
-    <row r="104" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" s="7" t="s">
         <v>207</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>208</v>
       </c>
       <c r="D104" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A104,""ru"",""en"")"),"Stirrelators")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A104,""ru"",""en"")"),"Stirrelators")</f>
         <v>Stirrelators</v>
       </c>
       <c r="E104" s="6"/>
@@ -5714,7 +5714,7 @@
       <c r="Y104" s="6"/>
       <c r="Z104" s="6"/>
     </row>
-    <row r="105" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" s="7" t="s">
         <v>209</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>210</v>
       </c>
       <c r="D105" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A105,""ru"",""en"")"),"Scoops")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A105,""ru"",""en"")"),"Scoops")</f>
         <v>Scoops</v>
       </c>
       <c r="E105" s="5"/>
@@ -5751,7 +5751,7 @@
       <c r="Y105" s="6"/>
       <c r="Z105" s="6"/>
     </row>
-    <row r="106" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" s="7" t="s">
         <v>211</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>212</v>
       </c>
       <c r="D106" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A106,""ru"",""en"")"),"Glasses for hot drinks")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A106,""ru"",""en"")"),"Glasses for hot drinks")</f>
         <v>Glasses for hot drinks</v>
       </c>
       <c r="E106" s="6"/>
@@ -5788,7 +5788,7 @@
       <c r="Y106" s="6"/>
       <c r="Z106" s="6"/>
     </row>
-    <row r="107" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" s="7" t="s">
         <v>213</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>214</v>
       </c>
       <c r="D107" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A107,""ru"",""en"")"),"Cutlery")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A107,""ru"",""en"")"),"Cutlery")</f>
         <v>Cutlery</v>
       </c>
       <c r="E107" s="5"/>
@@ -5825,7 +5825,7 @@
       <c r="Y107" s="6"/>
       <c r="Z107" s="6"/>
     </row>
-    <row r="108" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" s="7" t="s">
         <v>215</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>216</v>
       </c>
       <c r="D108" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A108,""ru"",""en"")"),"Soup banks")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A108,""ru"",""en"")"),"Soup banks")</f>
         <v>Soup banks</v>
       </c>
       <c r="E108" s="6"/>
@@ -5862,7 +5862,7 @@
       <c r="Y108" s="6"/>
       <c r="Z108" s="6"/>
     </row>
-    <row r="109" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" s="7" t="s">
         <v>217</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>218</v>
       </c>
       <c r="D109" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A109,""ru"",""en"")"),"Plates and bowls")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A109,""ru"",""en"")"),"Plates and bowls")</f>
         <v>Plates and bowls</v>
       </c>
       <c r="E109" s="5"/>
@@ -5899,7 +5899,7 @@
       <c r="Y109" s="6"/>
       <c r="Z109" s="6"/>
     </row>
-    <row r="110" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" s="7" t="s">
         <v>219</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>220</v>
       </c>
       <c r="D110" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A110,""ru"",""en"")"),"Tubes")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A110,""ru"",""en"")"),"Tubes")</f>
         <v>Tubes</v>
       </c>
       <c r="E110" s="6"/>
@@ -5936,7 +5936,7 @@
       <c r="Y110" s="6"/>
       <c r="Z110" s="6"/>
     </row>
-    <row r="111" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" s="7" t="s">
         <v>221</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>222</v>
       </c>
       <c r="D111" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A111,""ru"",""en"")"),"Disposable overalls")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A111,""ru"",""en"")"),"Disposable overalls")</f>
         <v>Disposable overalls</v>
       </c>
       <c r="E111" s="5"/>
@@ -5973,7 +5973,7 @@
       <c r="Y111" s="6"/>
       <c r="Z111" s="6"/>
     </row>
-    <row r="112" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" s="7" t="s">
         <v>223</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>224</v>
       </c>
       <c r="D112" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A112,""ru"",""en"")"),"Gloves")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A112,""ru"",""en"")"),"Gloves")</f>
         <v>Gloves</v>
       </c>
       <c r="E112" s="6"/>
@@ -6010,7 +6010,7 @@
       <c r="Y112" s="6"/>
       <c r="Z112" s="6"/>
     </row>
-    <row r="113" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" s="7" t="s">
         <v>225</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>226</v>
       </c>
       <c r="D113" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A113,""ru"",""en"")"),"Thermometers and hygrometers")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A113,""ru"",""en"")"),"Thermometers and hygrometers")</f>
         <v>Thermometers and hygrometers</v>
       </c>
       <c r="E113" s="5"/>
@@ -6047,7 +6047,7 @@
       <c r="Y113" s="6"/>
       <c r="Z113" s="6"/>
     </row>
-    <row r="114" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" s="7" t="s">
         <v>227</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>228</v>
       </c>
       <c r="D114" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A114,""ru"",""en"")"),"Cooking goods")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A114,""ru"",""en"")"),"Cooking goods")</f>
         <v>Cooking goods</v>
       </c>
       <c r="E114" s="6"/>
@@ -6084,7 +6084,7 @@
       <c r="Y114" s="6"/>
       <c r="Z114" s="6"/>
     </row>
-    <row r="115" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" s="7" t="s">
         <v>229</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>230</v>
       </c>
       <c r="D115" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A115,""ru"",""en"")"),"Decorations, Tools for drinks and meals")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A115,""ru"",""en"")"),"Decorations, Tools for drinks and meals")</f>
         <v>Decorations, Tools for drinks and meals</v>
       </c>
       <c r="E115" s="5"/>
@@ -6121,7 +6121,7 @@
       <c r="Y115" s="6"/>
       <c r="Z115" s="6"/>
     </row>
-    <row r="116" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" s="7" t="s">
         <v>231</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>232</v>
       </c>
       <c r="D116" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A116,""ru"",""en"")"),"Packages")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A116,""ru"",""en"")"),"Packages")</f>
         <v>Packages</v>
       </c>
       <c r="E116" s="6"/>
@@ -6158,7 +6158,7 @@
       <c r="Y116" s="6"/>
       <c r="Z116" s="6"/>
     </row>
-    <row r="117" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" s="7" t="s">
         <v>233</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>234</v>
       </c>
       <c r="D117" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A117,""ru"",""en"")"),"Scotchi, adhesive tapes and stretch")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A117,""ru"",""en"")"),"Scotchi, adhesive tapes and stretch")</f>
         <v>Scotchi, adhesive tapes and stretch</v>
       </c>
       <c r="E117" s="5"/>
@@ -6195,7 +6195,7 @@
       <c r="Y117" s="6"/>
       <c r="Z117" s="6"/>
     </row>
-    <row r="118" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" s="7" t="s">
         <v>235</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>236</v>
       </c>
       <c r="D118" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A118,""ru"",""en"")"),"Clamps, twine and mesh")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A118,""ru"",""en"")"),"Clamps, twine and mesh")</f>
         <v>Clamps, twine and mesh</v>
       </c>
       <c r="E118" s="6"/>
@@ -6232,7 +6232,7 @@
       <c r="Y118" s="6"/>
       <c r="Z118" s="6"/>
     </row>
-    <row r="119" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119" s="7" t="s">
         <v>237</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>238</v>
       </c>
       <c r="D119" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A119,""ru"",""en"")"),"Sponges and washcloths")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A119,""ru"",""en"")"),"Sponges and washcloths")</f>
         <v>Sponges and washcloths</v>
       </c>
       <c r="E119" s="5"/>
@@ -6269,7 +6269,7 @@
       <c r="Y119" s="6"/>
       <c r="Z119" s="6"/>
     </row>
-    <row r="120" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" s="7" t="s">
         <v>239</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>240</v>
       </c>
       <c r="D120" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A120,""ru"",""en"")"),"Shovels, rakes, cuttings")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A120,""ru"",""en"")"),"Shovels, rakes, cuttings")</f>
         <v>Shovels, rakes, cuttings</v>
       </c>
       <c r="E120" s="6"/>
@@ -6306,7 +6306,7 @@
       <c r="Y120" s="6"/>
       <c r="Z120" s="6"/>
     </row>
-    <row r="121" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121" s="7" t="s">
         <v>241</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>242</v>
       </c>
       <c r="D121" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A121,""ru"",""en"")"),"Brooms, brushes, scoops for cleaning")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A121,""ru"",""en"")"),"Brooms, brushes, scoops for cleaning")</f>
         <v>Brooms, brushes, scoops for cleaning</v>
       </c>
       <c r="E121" s="5"/>
@@ -6343,7 +6343,7 @@
       <c r="Y121" s="6"/>
       <c r="Z121" s="6"/>
     </row>
-    <row r="122" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122" s="7" t="s">
         <v>243</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>244</v>
       </c>
       <c r="D122" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A122,""ru"",""en"")"),"Windowe")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A122,""ru"",""en"")"),"Windowe")</f>
         <v>Windowe</v>
       </c>
       <c r="E122" s="6"/>
@@ -6380,7 +6380,7 @@
       <c r="Y122" s="6"/>
       <c r="Z122" s="6"/>
     </row>
-    <row r="123" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123" s="7" t="s">
         <v>245</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>246</v>
       </c>
       <c r="D123" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A123,""ru"",""en"")"),"Material material, rag")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A123,""ru"",""en"")"),"Material material, rag")</f>
         <v>Material material, rag</v>
       </c>
       <c r="E123" s="5"/>
@@ -6417,7 +6417,7 @@
       <c r="Y123" s="6"/>
       <c r="Z123" s="6"/>
     </row>
-    <row r="124" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="A124" s="7" t="s">
         <v>247</v>
       </c>
@@ -6453,7 +6453,7 @@
       <c r="Y124" s="6"/>
       <c r="Z124" s="6"/>
     </row>
-    <row r="125" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125" s="7" t="s">
         <v>249</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>250</v>
       </c>
       <c r="D125" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A125,""ru"",""en"")"),"Trolleys for cleaning")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A125,""ru"",""en"")"),"Trolleys for cleaning")</f>
         <v>Trolleys for cleaning</v>
       </c>
       <c r="E125" s="5"/>
@@ -6490,7 +6490,7 @@
       <c r="Y125" s="6"/>
       <c r="Z125" s="6"/>
     </row>
-    <row r="126" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="A126" s="7" t="s">
         <v>251</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>252</v>
       </c>
       <c r="D126" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A126,""ru"",""en"")"),"Goods for toilet")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A126,""ru"",""en"")"),"Goods for toilet")</f>
         <v>Goods for toilet</v>
       </c>
       <c r="E126" s="6"/>
@@ -6527,7 +6527,7 @@
       <c r="Y126" s="6"/>
       <c r="Z126" s="6"/>
     </row>
-    <row r="127" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="A127" s="7" t="s">
         <v>253</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>254</v>
       </c>
       <c r="D127" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A127,""ru"",""en"")"),"Mop, Mopes, Holders")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A127,""ru"",""en"")"),"Mop, Mopes, Holders")</f>
         <v>Mop, Mopes, Holders</v>
       </c>
       <c r="E127" s="5"/>
@@ -6564,7 +6564,7 @@
       <c r="Y127" s="6"/>
       <c r="Z127" s="6"/>
     </row>
-    <row r="128" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="A128" s="7" t="s">
         <v>255</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>256</v>
       </c>
       <c r="D128" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A128,""ru"",""en"")"),"About company")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A128,""ru"",""en"")"),"About company")</f>
         <v>About company</v>
       </c>
       <c r="E128" s="6"/>
@@ -6601,7 +6601,7 @@
       <c r="Y128" s="6"/>
       <c r="Z128" s="6"/>
     </row>
-    <row r="129" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" s="7" t="s">
         <v>257</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>258</v>
       </c>
       <c r="D129" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A129,""ru"",""en"")"),"To main")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A129,""ru"",""en"")"),"To main")</f>
         <v>To main</v>
       </c>
       <c r="E129" s="6"/>
@@ -6638,7 +6638,7 @@
       <c r="Y129" s="6"/>
       <c r="Z129" s="6"/>
     </row>
-    <row r="130" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" s="7" t="s">
         <v>259</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>260</v>
       </c>
       <c r="D130" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A130,""ru"",""en"")"),"Exit")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A130,""ru"",""en"")"),"Exit")</f>
         <v>Exit</v>
       </c>
       <c r="E130" s="6"/>
@@ -6675,7 +6675,7 @@
       <c r="Y130" s="6"/>
       <c r="Z130" s="6"/>
     </row>
-    <row r="131" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" s="7" t="s">
         <v>261</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>262</v>
       </c>
       <c r="D131" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A131,""ru"",""en"")"),"Login")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A131,""ru"",""en"")"),"Login")</f>
         <v>Login</v>
       </c>
       <c r="E131" s="6"/>
@@ -6712,7 +6712,7 @@
       <c r="Y131" s="6"/>
       <c r="Z131" s="6"/>
     </row>
-    <row r="132" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" s="7" t="s">
         <v>263</v>
       </c>
@@ -6748,7 +6748,7 @@
       <c r="Y132" s="6"/>
       <c r="Z132" s="6"/>
     </row>
-    <row r="133" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" s="7" t="s">
         <v>266</v>
       </c>
@@ -6784,7 +6784,7 @@
       <c r="Y133" s="6"/>
       <c r="Z133" s="6"/>
     </row>
-    <row r="134" spans="1:26" ht="39" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" s="7" t="s">
         <v>270</v>
       </c>
@@ -6820,7 +6820,7 @@
       <c r="Y134" s="6"/>
       <c r="Z134" s="6"/>
     </row>
-    <row r="135" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" s="7" t="s">
         <v>274</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>275</v>
       </c>
       <c r="D135" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A135,""ru"",""en"")"),"Forgot password")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A135,""ru"",""en"")"),"Forgot password")</f>
         <v>Forgot password</v>
       </c>
       <c r="E135" s="6"/>
@@ -6857,7 +6857,7 @@
       <c r="Y135" s="6"/>
       <c r="Z135" s="6"/>
     </row>
-    <row r="136" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" s="7" t="s">
         <v>276</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>264</v>
       </c>
       <c r="D136" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A136,""ru"",""en"")"),"Register")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A136,""ru"",""en"")"),"Register")</f>
         <v>Register</v>
       </c>
       <c r="E136" s="6"/>
@@ -6894,7 +6894,7 @@
       <c r="Y136" s="6"/>
       <c r="Z136" s="6"/>
     </row>
-    <row r="137" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" s="7" t="s">
         <v>277</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>278</v>
       </c>
       <c r="D137" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A137,""ru"",""en"")"),"Cancel")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A137,""ru"",""en"")"),"Cancel")</f>
         <v>Cancel</v>
       </c>
       <c r="E137" s="6"/>
@@ -6931,7 +6931,7 @@
       <c r="Y137" s="6"/>
       <c r="Z137" s="6"/>
     </row>
-    <row r="138" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138" s="7" t="s">
         <v>279</v>
       </c>
@@ -6967,7 +6967,7 @@
       <c r="Y138" s="6"/>
       <c r="Z138" s="6"/>
     </row>
-    <row r="139" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="A139" s="7" t="s">
         <v>282</v>
       </c>
@@ -7003,7 +7003,7 @@
       <c r="Y139" s="6"/>
       <c r="Z139" s="6"/>
     </row>
-    <row r="140" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="A140" s="7" t="s">
         <v>285</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>286</v>
       </c>
       <c r="D140" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A140,""ru"",""en"")"),"Error")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A140,""ru"",""en"")"),"Error")</f>
         <v>Error</v>
       </c>
       <c r="E140" s="6"/>
@@ -7040,7 +7040,7 @@
       <c r="Y140" s="6"/>
       <c r="Z140" s="6"/>
     </row>
-    <row r="141" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="A141" s="7" t="s">
         <v>287</v>
       </c>
@@ -7076,7 +7076,7 @@
       <c r="Y141" s="6"/>
       <c r="Z141" s="6"/>
     </row>
-    <row r="142" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="A142" s="7" t="s">
         <v>290</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>291</v>
       </c>
       <c r="D142" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A142,""ru"",""en"")"),"History of shopping")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A142,""ru"",""en"")"),"History of shopping")</f>
         <v>History of shopping</v>
       </c>
       <c r="E142" s="6"/>
@@ -7113,7 +7113,7 @@
       <c r="Y142" s="6"/>
       <c r="Z142" s="6"/>
     </row>
-    <row r="143" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="A143" s="7" t="s">
         <v>292</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>293</v>
       </c>
       <c r="D143" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A143,""ru"",""en"")"),"Ordering")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A143,""ru"",""en"")"),"Ordering")</f>
         <v>Ordering</v>
       </c>
       <c r="E143" s="6"/>
@@ -7150,7 +7150,7 @@
       <c r="Y143" s="6"/>
       <c r="Z143" s="6"/>
     </row>
-    <row r="144" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="A144" s="7" t="s">
         <v>294</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>295</v>
       </c>
       <c r="D144" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A144,""ru"",""en"")"),"Account created!")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A144,""ru"",""en"")"),"Account created!")</f>
         <v>Account created!</v>
       </c>
       <c r="E144" s="6"/>
@@ -7187,7 +7187,7 @@
       <c r="Y144" s="6"/>
       <c r="Z144" s="6"/>
     </row>
-    <row r="145" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="A145" s="7" t="s">
         <v>296</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>297</v>
       </c>
       <c r="D145" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A145,""ru"",""en"")"),"Dear")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A145,""ru"",""en"")"),"Dear")</f>
         <v>Dear</v>
       </c>
       <c r="E145" s="6"/>
@@ -7224,7 +7224,7 @@
       <c r="Y145" s="6"/>
       <c r="Z145" s="6"/>
     </row>
-    <row r="146" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="A146" s="7" t="s">
         <v>298</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>299</v>
       </c>
       <c r="D146" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A146,""ru"",""en"")"),"Your account")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A146,""ru"",""en"")"),"Your account")</f>
         <v>Your account</v>
       </c>
       <c r="E146" s="6"/>
@@ -7261,7 +7261,7 @@
       <c r="Y146" s="6"/>
       <c r="Z146" s="6"/>
     </row>
-    <row r="147" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="A147" s="7" t="s">
         <v>300</v>
       </c>
@@ -7297,7 +7297,7 @@
       <c r="Y147" s="6"/>
       <c r="Z147" s="6"/>
     </row>
-    <row r="148" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="A148" s="7" t="s">
         <v>303</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>304</v>
       </c>
       <c r="D148" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A148,""ru"",""en"")"),"Login")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A148,""ru"",""en"")"),"Login")</f>
         <v>Login</v>
       </c>
       <c r="E148" s="6"/>
@@ -7334,7 +7334,7 @@
       <c r="Y148" s="6"/>
       <c r="Z148" s="6"/>
     </row>
-    <row r="149" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="A149" s="7" t="s">
         <v>305</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>306</v>
       </c>
       <c r="D149" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A149,""ru"",""en"")"),"Password")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A149,""ru"",""en"")"),"Password")</f>
         <v>Password</v>
       </c>
       <c r="E149" s="6"/>
@@ -7371,7 +7371,7 @@
       <c r="Y149" s="6"/>
       <c r="Z149" s="6"/>
     </row>
-    <row r="150" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="A150" s="7" t="s">
         <v>307</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>308</v>
       </c>
       <c r="D150" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A150,""ru"",""en"")"),"Full name")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A150,""ru"",""en"")"),"Full name")</f>
         <v>Full name</v>
       </c>
       <c r="E150" s="6"/>
@@ -7408,7 +7408,7 @@
       <c r="Y150" s="6"/>
       <c r="Z150" s="6"/>
     </row>
-    <row r="151" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" s="7" t="s">
         <v>309</v>
       </c>
@@ -7444,7 +7444,7 @@
       <c r="Y151" s="6"/>
       <c r="Z151" s="6"/>
     </row>
-    <row r="152" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="A152" s="7" t="s">
         <v>312</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>313</v>
       </c>
       <c r="D152" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A152,""ru"",""en"")"),"Delivery address")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A152,""ru"",""en"")"),"Delivery address")</f>
         <v>Delivery address</v>
       </c>
       <c r="E152" s="6"/>
@@ -7481,7 +7481,7 @@
       <c r="Y152" s="6"/>
       <c r="Z152" s="6"/>
     </row>
-    <row r="153" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="A153" s="7" t="s">
         <v>314</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>315</v>
       </c>
       <c r="D153" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A153,""ru"",""en"")"),"Account has been successfully edited!")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A153,""ru"",""en"")"),"Account has been successfully edited!")</f>
         <v>Account has been successfully edited!</v>
       </c>
       <c r="E153" s="6"/>
@@ -7518,7 +7518,7 @@
       <c r="Y153" s="6"/>
       <c r="Z153" s="6"/>
     </row>
-    <row r="154" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="A154" s="7" t="s">
         <v>316</v>
       </c>
@@ -7554,7 +7554,7 @@
       <c r="Y154" s="6"/>
       <c r="Z154" s="6"/>
     </row>
-    <row r="155" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="A155" s="7" t="s">
         <v>319</v>
       </c>
@@ -7590,7 +7590,7 @@
       <c r="Y155" s="6"/>
       <c r="Z155" s="6"/>
     </row>
-    <row r="156" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="156">
       <c r="A156" s="7" t="s">
         <v>323</v>
       </c>
@@ -7626,7 +7626,7 @@
       <c r="Y156" s="6"/>
       <c r="Z156" s="6"/>
     </row>
-    <row r="157" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="A157" s="7" t="s">
         <v>326</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>327</v>
       </c>
       <c r="D157" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A157,""ru"",""en"")"),"Empty trash?")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A157,""ru"",""en"")"),"Empty trash?")</f>
         <v>Empty trash?</v>
       </c>
       <c r="E157" s="6"/>
@@ -7663,7 +7663,7 @@
       <c r="Y157" s="6"/>
       <c r="Z157" s="6"/>
     </row>
-    <row r="158" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="A158" s="7" t="s">
         <v>328</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>329</v>
       </c>
       <c r="D158" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A158,""ru"",""en"")"),"Yes")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A158,""ru"",""en"")"),"Yes")</f>
         <v>Yes</v>
       </c>
       <c r="E158" s="6"/>
@@ -7700,7 +7700,7 @@
       <c r="Y158" s="6"/>
       <c r="Z158" s="6"/>
     </row>
-    <row r="159" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="159">
       <c r="A159" s="7" t="s">
         <v>330</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>331</v>
       </c>
       <c r="D159" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A159,""ru"",""en"")"),"Price with VAT")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A159,""ru"",""en"")"),"Price with VAT")</f>
         <v>Price with VAT</v>
       </c>
       <c r="E159" s="6"/>
@@ -7737,7 +7737,7 @@
       <c r="Y159" s="6"/>
       <c r="Z159" s="6"/>
     </row>
-    <row r="160" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="160">
       <c r="A160" s="7" t="s">
         <v>332</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>333</v>
       </c>
       <c r="D160" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A160,""ru"",""en"")"),"Price without VAT")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A160,""ru"",""en"")"),"Price without VAT")</f>
         <v>Price without VAT</v>
       </c>
       <c r="E160" s="6"/>
@@ -7774,7 +7774,7 @@
       <c r="Y160" s="6"/>
       <c r="Z160" s="6"/>
     </row>
-    <row r="161" spans="1:26" ht="39" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="A161" s="7" t="s">
         <v>334</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>335</v>
       </c>
       <c r="D161" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A161,""ru"",""en"")"),"Price excluding VAT at the total order amount from 250 BYN")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A161,""ru"",""en"")"),"Price excluding VAT at the total order amount from 250 BYN")</f>
         <v>Price excluding VAT at the total order amount from 250 BYN</v>
       </c>
       <c r="E161" s="6"/>
@@ -7811,7 +7811,7 @@
       <c r="Y161" s="6"/>
       <c r="Z161" s="6"/>
     </row>
-    <row r="162" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="162">
       <c r="A162" s="7" t="s">
         <v>336</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>337</v>
       </c>
       <c r="D162" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A162,""ru"",""en"")"),"Payment method:")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A162,""ru"",""en"")"),"Payment method:")</f>
         <v>Payment method:</v>
       </c>
       <c r="E162" s="6"/>
@@ -7848,7 +7848,7 @@
       <c r="Y162" s="6"/>
       <c r="Z162" s="6"/>
     </row>
-    <row r="163" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163" s="7" t="s">
         <v>338</v>
       </c>
@@ -7884,7 +7884,7 @@
       <c r="Y163" s="6"/>
       <c r="Z163" s="6"/>
     </row>
-    <row r="164" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="164">
       <c r="A164" s="7" t="s">
         <v>341</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>342</v>
       </c>
       <c r="D164" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A164,""ru"",""en"")"),"Delivery:")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A164,""ru"",""en"")"),"Delivery:")</f>
         <v>Delivery:</v>
       </c>
       <c r="E164" s="6"/>
@@ -7921,7 +7921,7 @@
       <c r="Y164" s="6"/>
       <c r="Z164" s="6"/>
     </row>
-    <row r="165" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="165">
       <c r="A165" s="7" t="s">
         <v>343</v>
       </c>
@@ -7957,7 +7957,7 @@
       <c r="Y165" s="6"/>
       <c r="Z165" s="6"/>
     </row>
-    <row r="166" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="A166" s="7" t="s">
         <v>346</v>
       </c>
@@ -7993,7 +7993,7 @@
       <c r="Y166" s="6"/>
       <c r="Z166" s="6"/>
     </row>
-    <row r="167" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="167">
       <c r="A167" s="7" t="s">
         <v>349</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>350</v>
       </c>
       <c r="D167" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A167,""ru"",""en"")"),"The order has been sent!")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A167,""ru"",""en"")"),"The order has been sent!")</f>
         <v>The order has been sent!</v>
       </c>
       <c r="E167" s="6"/>
@@ -8030,7 +8030,7 @@
       <c r="Y167" s="6"/>
       <c r="Z167" s="6"/>
     </row>
-    <row r="168" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="168">
       <c r="A168" s="7" t="s">
         <v>351</v>
       </c>
@@ -8066,7 +8066,7 @@
       <c r="Y168" s="6"/>
       <c r="Z168" s="6"/>
     </row>
-    <row r="169" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="169">
       <c r="A169" s="7" t="s">
         <v>354</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>355</v>
       </c>
       <c r="D169" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A169,""ru"",""en"")"),"Order confirmation sent to your email:")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A169,""ru"",""en"")"),"Order confirmation sent to your email:")</f>
         <v>Order confirmation sent to your email:</v>
       </c>
       <c r="E169" s="6"/>
@@ -8103,7 +8103,7 @@
       <c r="Y169" s="6"/>
       <c r="Z169" s="6"/>
     </row>
-    <row r="170" spans="1:26" ht="39" x14ac:dyDescent="0.25">
+    <row r="170">
       <c r="A170" s="7" t="s">
         <v>356</v>
       </c>
@@ -8139,7 +8139,7 @@
       <c r="Y170" s="6"/>
       <c r="Z170" s="6"/>
     </row>
-    <row r="171" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="171">
       <c r="A171" s="7" t="s">
         <v>359</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>360</v>
       </c>
       <c r="D171" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A171,""ru"",""en"")"),"An error has occurred!")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A171,""ru"",""en"")"),"An error has occurred!")</f>
         <v>An error has occurred!</v>
       </c>
       <c r="E171" s="6"/>
@@ -8176,7 +8176,7 @@
       <c r="Y171" s="6"/>
       <c r="Z171" s="6"/>
     </row>
-    <row r="172" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="172">
       <c r="A172" s="7" t="s">
         <v>361</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>362</v>
       </c>
       <c r="D172" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A172,""ru"",""en"")"),"Your order is not sent")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A172,""ru"",""en"")"),"Your order is not sent")</f>
         <v>Your order is not sent</v>
       </c>
       <c r="E172" s="6"/>
@@ -8213,7 +8213,7 @@
       <c r="Y172" s="6"/>
       <c r="Z172" s="6"/>
     </row>
-    <row r="173" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="A173" s="7" t="s">
         <v>363</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>364</v>
       </c>
       <c r="D173" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A173,""ru"",""en"")"),"Contact your support service or try later.")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A173,""ru"",""en"")"),"Contact your support service or try later.")</f>
         <v>Contact your support service or try later.</v>
       </c>
       <c r="E173" s="6"/>
@@ -8250,7 +8250,7 @@
       <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
     </row>
-    <row r="174" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="174">
       <c r="A174" s="7" t="s">
         <v>365</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>366</v>
       </c>
       <c r="D174" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A174,""ru"",""en"")"),"Close")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A174,""ru"",""en"")"),"Close")</f>
         <v>Close</v>
       </c>
       <c r="E174" s="6"/>
@@ -8287,7 +8287,7 @@
       <c r="Y174" s="6"/>
       <c r="Z174" s="6"/>
     </row>
-    <row r="175" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="175">
       <c r="A175" s="7" t="s">
         <v>367</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>368</v>
       </c>
       <c r="D175" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A175,""ru"",""en"")"),"Photo")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A175,""ru"",""en"")"),"Photo")</f>
         <v>Photo</v>
       </c>
       <c r="E175" s="6"/>
@@ -8324,7 +8324,7 @@
       <c r="Y175" s="6"/>
       <c r="Z175" s="6"/>
     </row>
-    <row r="176" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="176">
       <c r="A176" s="7" t="s">
         <v>369</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>370</v>
       </c>
       <c r="D176" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A176,""ru"",""en"")"),"Name")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A176,""ru"",""en"")"),"Name")</f>
         <v>Name</v>
       </c>
       <c r="E176" s="6"/>
@@ -8361,7 +8361,7 @@
       <c r="Y176" s="6"/>
       <c r="Z176" s="6"/>
     </row>
-    <row r="177" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="177">
       <c r="A177" s="7" t="s">
         <v>371</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>372</v>
       </c>
       <c r="D177" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A177,""ru"",""en"")"),"Count")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A177,""ru"",""en"")"),"Count")</f>
         <v>Count</v>
       </c>
       <c r="E177" s="6"/>
@@ -8398,7 +8398,7 @@
       <c r="Y177" s="6"/>
       <c r="Z177" s="6"/>
     </row>
-    <row r="178" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="178">
       <c r="A178" s="7" t="s">
         <v>373</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>374</v>
       </c>
       <c r="D178" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A178,""ru"",""en"")"),"Price")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A178,""ru"",""en"")"),"Price")</f>
         <v>Price</v>
       </c>
       <c r="E178" s="6"/>
@@ -8435,7 +8435,7 @@
       <c r="Y178" s="6"/>
       <c r="Z178" s="6"/>
     </row>
-    <row r="179" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="179">
       <c r="A179" s="7" t="s">
         <v>375</v>
       </c>
@@ -8471,7 +8471,7 @@
       <c r="Y179" s="6"/>
       <c r="Z179" s="6"/>
     </row>
-    <row r="180" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="180">
       <c r="A180" s="7" t="s">
         <v>378</v>
       </c>
@@ -8507,7 +8507,7 @@
       <c r="Y180" s="6"/>
       <c r="Z180" s="6"/>
     </row>
-    <row r="181" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="181">
       <c r="A181" s="7" t="s">
         <v>381</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>382</v>
       </c>
       <c r="D181" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A181,""ru"",""en"")"),"Password restored!")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A181,""ru"",""en"")"),"Password restored!")</f>
         <v>Password restored!</v>
       </c>
       <c r="E181" s="6"/>
@@ -8544,7 +8544,7 @@
       <c r="Y181" s="6"/>
       <c r="Z181" s="6"/>
     </row>
-    <row r="182" spans="1:26" ht="39" x14ac:dyDescent="0.25">
+    <row r="182">
       <c r="A182" s="7" t="s">
         <v>383</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>385</v>
       </c>
       <c r="D182" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A182,""ru"",""en"")"),"The password is sent to you on email. Please check your mailbox.")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A182,""ru"",""en"")"),"The password is sent to you on email. Please check your mailbox.")</f>
         <v>The password is sent to you on email. Please check your mailbox.</v>
       </c>
       <c r="E182" s="6"/>
@@ -8581,7 +8581,7 @@
       <c r="Y182" s="6"/>
       <c r="Z182" s="6"/>
     </row>
-    <row r="183" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="183">
       <c r="A183" s="7" t="s">
         <v>257</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>258</v>
       </c>
       <c r="D183" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A183,""ru"",""en"")"),"To main")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A183,""ru"",""en"")"),"To main")</f>
         <v>To main</v>
       </c>
       <c r="E183" s="6"/>
@@ -8618,7 +8618,7 @@
       <c r="Y183" s="6"/>
       <c r="Z183" s="6"/>
     </row>
-    <row r="184" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="184">
       <c r="A184" s="7" t="s">
         <v>386</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>387</v>
       </c>
       <c r="D184" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A184,""ru"",""en"")"),"Order No.")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A184,""ru"",""en"")"),"Order No.")</f>
         <v>Order No.</v>
       </c>
       <c r="E184" s="6"/>
@@ -8655,7 +8655,7 @@
       <c r="Y184" s="6"/>
       <c r="Z184" s="6"/>
     </row>
-    <row r="185" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="185">
       <c r="A185" s="7" t="s">
         <v>388</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>389</v>
       </c>
       <c r="D185" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A185,""ru"",""en"")"),"Repeat order")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A185,""ru"",""en"")"),"Repeat order")</f>
         <v>Repeat order</v>
       </c>
       <c r="E185" s="6"/>
@@ -8692,7 +8692,7 @@
       <c r="Y185" s="6"/>
       <c r="Z185" s="6"/>
     </row>
-    <row r="186" spans="1:26" ht="39" x14ac:dyDescent="0.25">
+    <row r="186">
       <c r="A186" s="7" t="s">
         <v>390</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>391</v>
       </c>
       <c r="D186" s="10" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A186,""ru"",""en"")"),"No goods in this category. Change the search parameters.")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A186,""ru"",""en"")"),"No goods in this category. Change the search parameters.")</f>
         <v>No goods in this category. Change the search parameters.</v>
       </c>
       <c r="E186" s="6"/>
@@ -8729,7 +8729,7 @@
       <c r="Y186" s="6"/>
       <c r="Z186" s="6"/>
     </row>
-    <row r="187" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="187">
       <c r="A187" s="7" t="s">
         <v>392</v>
       </c>
@@ -8765,7 +8765,7 @@
       <c r="Y187" s="6"/>
       <c r="Z187" s="6"/>
     </row>
-    <row r="188" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="188">
       <c r="A188" s="7" t="s">
         <v>395</v>
       </c>
@@ -8801,7 +8801,7 @@
       <c r="Y188" s="6"/>
       <c r="Z188" s="6"/>
     </row>
-    <row r="189" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="189">
       <c r="A189" s="7" t="s">
         <v>398</v>
       </c>
@@ -8837,7 +8837,7 @@
       <c r="Y189" s="6"/>
       <c r="Z189" s="6"/>
     </row>
-    <row r="190" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="190">
       <c r="A190" s="7" t="s">
         <v>401</v>
       </c>
@@ -8873,7 +8873,7 @@
       <c r="Y190" s="6"/>
       <c r="Z190" s="6"/>
     </row>
-    <row r="191" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="191">
       <c r="A191" s="7" t="s">
         <v>404</v>
       </c>
@@ -8909,7 +8909,7 @@
       <c r="Y191" s="6"/>
       <c r="Z191" s="6"/>
     </row>
-    <row r="192" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="192">
       <c r="A192" s="7" t="s">
         <v>407</v>
       </c>
@@ -8945,7 +8945,7 @@
       <c r="Y192" s="6"/>
       <c r="Z192" s="6"/>
     </row>
-    <row r="193" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="193">
       <c r="A193" s="7" t="s">
         <v>410</v>
       </c>
@@ -8981,7 +8981,7 @@
       <c r="Y193" s="6"/>
       <c r="Z193" s="6"/>
     </row>
-    <row r="194" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="194">
       <c r="A194" s="7" t="s">
         <v>413</v>
       </c>
@@ -9017,7 +9017,7 @@
       <c r="Y194" s="6"/>
       <c r="Z194" s="6"/>
     </row>
-    <row r="195" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="195">
       <c r="A195" s="7" t="s">
         <v>416</v>
       </c>
@@ -9053,7 +9053,7 @@
       <c r="Y195" s="6"/>
       <c r="Z195" s="6"/>
     </row>
-    <row r="196" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="196">
       <c r="A196" s="7" t="s">
         <v>419</v>
       </c>
@@ -9089,7 +9089,7 @@
       <c r="Y196" s="6"/>
       <c r="Z196" s="6"/>
     </row>
-    <row r="197" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="197">
       <c r="A197" s="7" t="s">
         <v>422</v>
       </c>
@@ -9125,7 +9125,7 @@
       <c r="Y197" s="6"/>
       <c r="Z197" s="6"/>
     </row>
-    <row r="198" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="198">
       <c r="A198" s="7" t="s">
         <v>425</v>
       </c>
@@ -9161,7 +9161,7 @@
       <c r="Y198" s="6"/>
       <c r="Z198" s="6"/>
     </row>
-    <row r="199" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="199">
       <c r="A199" s="7" t="s">
         <v>428</v>
       </c>
@@ -9197,7 +9197,7 @@
       <c r="Y199" s="6"/>
       <c r="Z199" s="6"/>
     </row>
-    <row r="200" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="200">
       <c r="A200" s="7" t="s">
         <v>431</v>
       </c>
@@ -9233,7 +9233,7 @@
       <c r="Y200" s="6"/>
       <c r="Z200" s="6"/>
     </row>
-    <row r="201" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="201">
       <c r="A201" s="7" t="s">
         <v>434</v>
       </c>
@@ -9269,7 +9269,7 @@
       <c r="Y201" s="6"/>
       <c r="Z201" s="6"/>
     </row>
-    <row r="202" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="202">
       <c r="A202" s="7" t="s">
         <v>437</v>
       </c>
@@ -9279,8 +9279,8 @@
       <c r="C202" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="D202" s="17" t="s">
-        <v>481</v>
+      <c r="D202" s="11" t="s">
+        <v>439</v>
       </c>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
@@ -9305,18 +9305,18 @@
       <c r="Y202" s="6"/>
       <c r="Z202" s="6"/>
     </row>
-    <row r="203" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="203">
       <c r="A203" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
@@ -9341,18 +9341,18 @@
       <c r="Y203" s="6"/>
       <c r="Z203" s="6"/>
     </row>
-    <row r="204" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="204">
       <c r="A204" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
@@ -9377,18 +9377,18 @@
       <c r="Y204" s="6"/>
       <c r="Z204" s="6"/>
     </row>
-    <row r="205" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="205">
       <c r="A205" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
@@ -9413,18 +9413,18 @@
       <c r="Y205" s="6"/>
       <c r="Z205" s="6"/>
     </row>
-    <row r="206" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="206">
       <c r="A206" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
@@ -9449,18 +9449,18 @@
       <c r="Y206" s="6"/>
       <c r="Z206" s="6"/>
     </row>
-    <row r="207" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="207">
       <c r="A207" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
@@ -9485,18 +9485,18 @@
       <c r="Y207" s="6"/>
       <c r="Z207" s="6"/>
     </row>
-    <row r="208" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="208">
       <c r="A208" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
@@ -9521,18 +9521,18 @@
       <c r="Y208" s="6"/>
       <c r="Z208" s="6"/>
     </row>
-    <row r="209" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="209">
       <c r="A209" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
@@ -9557,18 +9557,18 @@
       <c r="Y209" s="6"/>
       <c r="Z209" s="6"/>
     </row>
-    <row r="210" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="210">
       <c r="A210" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="D210" s="16" t="s">
-        <v>480</v>
+        <v>462</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>463</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
@@ -9593,18 +9593,18 @@
       <c r="Y210" s="6"/>
       <c r="Z210" s="6"/>
     </row>
-    <row r="211" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="211">
       <c r="A211" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
@@ -9629,18 +9629,18 @@
       <c r="Y211" s="6"/>
       <c r="Z211" s="6"/>
     </row>
-    <row r="212" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="212">
       <c r="A212" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
@@ -9665,18 +9665,18 @@
       <c r="Y212" s="6"/>
       <c r="Z212" s="6"/>
     </row>
-    <row r="213" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="213">
       <c r="A213" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D213" s="11" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
@@ -9701,18 +9701,18 @@
       <c r="Y213" s="6"/>
       <c r="Z213" s="6"/>
     </row>
-    <row r="214" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="214">
       <c r="A214" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D214" s="11" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
@@ -9737,18 +9737,18 @@
       <c r="Y214" s="6"/>
       <c r="Z214" s="6"/>
     </row>
-    <row r="215" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="215">
       <c r="A215" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D215" s="11" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
@@ -9773,18 +9773,18 @@
       <c r="Y215" s="6"/>
       <c r="Z215" s="6"/>
     </row>
-    <row r="216" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="216">
       <c r="A216" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
@@ -9809,8 +9809,879 @@
       <c r="Y216" s="6"/>
       <c r="Z216" s="6"/>
     </row>
+    <row r="217">
+      <c r="A217" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="B217" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C217" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="D217" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
+      <c r="I217" s="6"/>
+      <c r="J217" s="6"/>
+      <c r="K217" s="6"/>
+      <c r="L217" s="6"/>
+      <c r="M217" s="6"/>
+      <c r="N217" s="6"/>
+      <c r="O217" s="6"/>
+      <c r="P217" s="6"/>
+      <c r="Q217" s="6"/>
+      <c r="R217" s="6"/>
+      <c r="S217" s="6"/>
+      <c r="T217" s="6"/>
+      <c r="U217" s="6"/>
+      <c r="V217" s="6"/>
+      <c r="W217" s="6"/>
+      <c r="X217" s="6"/>
+      <c r="Y217" s="6"/>
+      <c r="Z217" s="6"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="B218" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="D218" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
+      <c r="I218" s="6"/>
+      <c r="J218" s="6"/>
+      <c r="K218" s="6"/>
+      <c r="L218" s="6"/>
+      <c r="M218" s="6"/>
+      <c r="N218" s="6"/>
+      <c r="O218" s="6"/>
+      <c r="P218" s="6"/>
+      <c r="Q218" s="6"/>
+      <c r="R218" s="6"/>
+      <c r="S218" s="6"/>
+      <c r="T218" s="6"/>
+      <c r="U218" s="6"/>
+      <c r="V218" s="6"/>
+      <c r="W218" s="6"/>
+      <c r="X218" s="6"/>
+      <c r="Y218" s="6"/>
+      <c r="Z218" s="6"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="B219" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="D219" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="E219" s="6"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="6"/>
+      <c r="I219" s="6"/>
+      <c r="J219" s="6"/>
+      <c r="K219" s="6"/>
+      <c r="L219" s="6"/>
+      <c r="M219" s="6"/>
+      <c r="N219" s="6"/>
+      <c r="O219" s="6"/>
+      <c r="P219" s="6"/>
+      <c r="Q219" s="6"/>
+      <c r="R219" s="6"/>
+      <c r="S219" s="6"/>
+      <c r="T219" s="6"/>
+      <c r="U219" s="6"/>
+      <c r="V219" s="6"/>
+      <c r="W219" s="6"/>
+      <c r="X219" s="6"/>
+      <c r="Y219" s="6"/>
+      <c r="Z219" s="6"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="B220" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="C220" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="D220" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+      <c r="I220" s="6"/>
+      <c r="J220" s="6"/>
+      <c r="K220" s="6"/>
+      <c r="L220" s="6"/>
+      <c r="M220" s="6"/>
+      <c r="N220" s="6"/>
+      <c r="O220" s="6"/>
+      <c r="P220" s="6"/>
+      <c r="Q220" s="6"/>
+      <c r="R220" s="6"/>
+      <c r="S220" s="6"/>
+      <c r="T220" s="6"/>
+      <c r="U220" s="6"/>
+      <c r="V220" s="6"/>
+      <c r="W220" s="6"/>
+      <c r="X220" s="6"/>
+      <c r="Y220" s="6"/>
+      <c r="Z220" s="6"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="16"/>
+      <c r="B221" s="16"/>
+      <c r="C221" s="17"/>
+      <c r="D221" s="18"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
+      <c r="I221" s="6"/>
+      <c r="J221" s="6"/>
+      <c r="K221" s="6"/>
+      <c r="L221" s="6"/>
+      <c r="M221" s="6"/>
+      <c r="N221" s="6"/>
+      <c r="O221" s="6"/>
+      <c r="P221" s="6"/>
+      <c r="Q221" s="6"/>
+      <c r="R221" s="6"/>
+      <c r="S221" s="6"/>
+      <c r="T221" s="6"/>
+      <c r="U221" s="6"/>
+      <c r="V221" s="6"/>
+      <c r="W221" s="6"/>
+      <c r="X221" s="6"/>
+      <c r="Y221" s="6"/>
+      <c r="Z221" s="6"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="16"/>
+      <c r="B222" s="16"/>
+      <c r="C222" s="17"/>
+      <c r="D222" s="18"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+      <c r="I222" s="6"/>
+      <c r="J222" s="6"/>
+      <c r="K222" s="6"/>
+      <c r="L222" s="6"/>
+      <c r="M222" s="6"/>
+      <c r="N222" s="6"/>
+      <c r="O222" s="6"/>
+      <c r="P222" s="6"/>
+      <c r="Q222" s="6"/>
+      <c r="R222" s="6"/>
+      <c r="S222" s="6"/>
+      <c r="T222" s="6"/>
+      <c r="U222" s="6"/>
+      <c r="V222" s="6"/>
+      <c r="W222" s="6"/>
+      <c r="X222" s="6"/>
+      <c r="Y222" s="6"/>
+      <c r="Z222" s="6"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="16"/>
+      <c r="B223" s="16"/>
+      <c r="C223" s="17"/>
+      <c r="D223" s="18"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+      <c r="I223" s="6"/>
+      <c r="J223" s="6"/>
+      <c r="K223" s="6"/>
+      <c r="L223" s="6"/>
+      <c r="M223" s="6"/>
+      <c r="N223" s="6"/>
+      <c r="O223" s="6"/>
+      <c r="P223" s="6"/>
+      <c r="Q223" s="6"/>
+      <c r="R223" s="6"/>
+      <c r="S223" s="6"/>
+      <c r="T223" s="6"/>
+      <c r="U223" s="6"/>
+      <c r="V223" s="6"/>
+      <c r="W223" s="6"/>
+      <c r="X223" s="6"/>
+      <c r="Y223" s="6"/>
+      <c r="Z223" s="6"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="16"/>
+      <c r="B224" s="16"/>
+      <c r="C224" s="17"/>
+      <c r="D224" s="18"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+      <c r="I224" s="6"/>
+      <c r="J224" s="6"/>
+      <c r="K224" s="6"/>
+      <c r="L224" s="6"/>
+      <c r="M224" s="6"/>
+      <c r="N224" s="6"/>
+      <c r="O224" s="6"/>
+      <c r="P224" s="6"/>
+      <c r="Q224" s="6"/>
+      <c r="R224" s="6"/>
+      <c r="S224" s="6"/>
+      <c r="T224" s="6"/>
+      <c r="U224" s="6"/>
+      <c r="V224" s="6"/>
+      <c r="W224" s="6"/>
+      <c r="X224" s="6"/>
+      <c r="Y224" s="6"/>
+      <c r="Z224" s="6"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="16"/>
+      <c r="B225" s="16"/>
+      <c r="C225" s="17"/>
+      <c r="D225" s="18"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="6"/>
+      <c r="I225" s="6"/>
+      <c r="J225" s="6"/>
+      <c r="K225" s="6"/>
+      <c r="L225" s="6"/>
+      <c r="M225" s="6"/>
+      <c r="N225" s="6"/>
+      <c r="O225" s="6"/>
+      <c r="P225" s="6"/>
+      <c r="Q225" s="6"/>
+      <c r="R225" s="6"/>
+      <c r="S225" s="6"/>
+      <c r="T225" s="6"/>
+      <c r="U225" s="6"/>
+      <c r="V225" s="6"/>
+      <c r="W225" s="6"/>
+      <c r="X225" s="6"/>
+      <c r="Y225" s="6"/>
+      <c r="Z225" s="6"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="16"/>
+      <c r="B226" s="16"/>
+      <c r="C226" s="17"/>
+      <c r="D226" s="18"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+      <c r="I226" s="6"/>
+      <c r="J226" s="6"/>
+      <c r="K226" s="6"/>
+      <c r="L226" s="6"/>
+      <c r="M226" s="6"/>
+      <c r="N226" s="6"/>
+      <c r="O226" s="6"/>
+      <c r="P226" s="6"/>
+      <c r="Q226" s="6"/>
+      <c r="R226" s="6"/>
+      <c r="S226" s="6"/>
+      <c r="T226" s="6"/>
+      <c r="U226" s="6"/>
+      <c r="V226" s="6"/>
+      <c r="W226" s="6"/>
+      <c r="X226" s="6"/>
+      <c r="Y226" s="6"/>
+      <c r="Z226" s="6"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="16"/>
+      <c r="B227" s="16"/>
+      <c r="C227" s="17"/>
+      <c r="D227" s="18"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="6"/>
+      <c r="I227" s="6"/>
+      <c r="J227" s="6"/>
+      <c r="K227" s="6"/>
+      <c r="L227" s="6"/>
+      <c r="M227" s="6"/>
+      <c r="N227" s="6"/>
+      <c r="O227" s="6"/>
+      <c r="P227" s="6"/>
+      <c r="Q227" s="6"/>
+      <c r="R227" s="6"/>
+      <c r="S227" s="6"/>
+      <c r="T227" s="6"/>
+      <c r="U227" s="6"/>
+      <c r="V227" s="6"/>
+      <c r="W227" s="6"/>
+      <c r="X227" s="6"/>
+      <c r="Y227" s="6"/>
+      <c r="Z227" s="6"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="16"/>
+      <c r="B228" s="16"/>
+      <c r="C228" s="17"/>
+      <c r="D228" s="18"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+      <c r="I228" s="6"/>
+      <c r="J228" s="6"/>
+      <c r="K228" s="6"/>
+      <c r="L228" s="6"/>
+      <c r="M228" s="6"/>
+      <c r="N228" s="6"/>
+      <c r="O228" s="6"/>
+      <c r="P228" s="6"/>
+      <c r="Q228" s="6"/>
+      <c r="R228" s="6"/>
+      <c r="S228" s="6"/>
+      <c r="T228" s="6"/>
+      <c r="U228" s="6"/>
+      <c r="V228" s="6"/>
+      <c r="W228" s="6"/>
+      <c r="X228" s="6"/>
+      <c r="Y228" s="6"/>
+      <c r="Z228" s="6"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="16"/>
+      <c r="B229" s="16"/>
+      <c r="C229" s="17"/>
+      <c r="D229" s="18"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
+      <c r="I229" s="6"/>
+      <c r="J229" s="6"/>
+      <c r="K229" s="6"/>
+      <c r="L229" s="6"/>
+      <c r="M229" s="6"/>
+      <c r="N229" s="6"/>
+      <c r="O229" s="6"/>
+      <c r="P229" s="6"/>
+      <c r="Q229" s="6"/>
+      <c r="R229" s="6"/>
+      <c r="S229" s="6"/>
+      <c r="T229" s="6"/>
+      <c r="U229" s="6"/>
+      <c r="V229" s="6"/>
+      <c r="W229" s="6"/>
+      <c r="X229" s="6"/>
+      <c r="Y229" s="6"/>
+      <c r="Z229" s="6"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="16"/>
+      <c r="B230" s="16"/>
+      <c r="C230" s="17"/>
+      <c r="D230" s="18"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="6"/>
+      <c r="I230" s="6"/>
+      <c r="J230" s="6"/>
+      <c r="K230" s="6"/>
+      <c r="L230" s="6"/>
+      <c r="M230" s="6"/>
+      <c r="N230" s="6"/>
+      <c r="O230" s="6"/>
+      <c r="P230" s="6"/>
+      <c r="Q230" s="6"/>
+      <c r="R230" s="6"/>
+      <c r="S230" s="6"/>
+      <c r="T230" s="6"/>
+      <c r="U230" s="6"/>
+      <c r="V230" s="6"/>
+      <c r="W230" s="6"/>
+      <c r="X230" s="6"/>
+      <c r="Y230" s="6"/>
+      <c r="Z230" s="6"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="16"/>
+      <c r="B231" s="16"/>
+      <c r="C231" s="17"/>
+      <c r="D231" s="18"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
+      <c r="H231" s="6"/>
+      <c r="I231" s="6"/>
+      <c r="J231" s="6"/>
+      <c r="K231" s="6"/>
+      <c r="L231" s="6"/>
+      <c r="M231" s="6"/>
+      <c r="N231" s="6"/>
+      <c r="O231" s="6"/>
+      <c r="P231" s="6"/>
+      <c r="Q231" s="6"/>
+      <c r="R231" s="6"/>
+      <c r="S231" s="6"/>
+      <c r="T231" s="6"/>
+      <c r="U231" s="6"/>
+      <c r="V231" s="6"/>
+      <c r="W231" s="6"/>
+      <c r="X231" s="6"/>
+      <c r="Y231" s="6"/>
+      <c r="Z231" s="6"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="16"/>
+      <c r="B232" s="16"/>
+      <c r="C232" s="17"/>
+      <c r="D232" s="18"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
+      <c r="I232" s="6"/>
+      <c r="J232" s="6"/>
+      <c r="K232" s="6"/>
+      <c r="L232" s="6"/>
+      <c r="M232" s="6"/>
+      <c r="N232" s="6"/>
+      <c r="O232" s="6"/>
+      <c r="P232" s="6"/>
+      <c r="Q232" s="6"/>
+      <c r="R232" s="6"/>
+      <c r="S232" s="6"/>
+      <c r="T232" s="6"/>
+      <c r="U232" s="6"/>
+      <c r="V232" s="6"/>
+      <c r="W232" s="6"/>
+      <c r="X232" s="6"/>
+      <c r="Y232" s="6"/>
+      <c r="Z232" s="6"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="16"/>
+      <c r="B233" s="16"/>
+      <c r="C233" s="17"/>
+      <c r="D233" s="18"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="6"/>
+      <c r="I233" s="6"/>
+      <c r="J233" s="6"/>
+      <c r="K233" s="6"/>
+      <c r="L233" s="6"/>
+      <c r="M233" s="6"/>
+      <c r="N233" s="6"/>
+      <c r="O233" s="6"/>
+      <c r="P233" s="6"/>
+      <c r="Q233" s="6"/>
+      <c r="R233" s="6"/>
+      <c r="S233" s="6"/>
+      <c r="T233" s="6"/>
+      <c r="U233" s="6"/>
+      <c r="V233" s="6"/>
+      <c r="W233" s="6"/>
+      <c r="X233" s="6"/>
+      <c r="Y233" s="6"/>
+      <c r="Z233" s="6"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="16"/>
+      <c r="B234" s="16"/>
+      <c r="C234" s="17"/>
+      <c r="D234" s="18"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+      <c r="I234" s="6"/>
+      <c r="J234" s="6"/>
+      <c r="K234" s="6"/>
+      <c r="L234" s="6"/>
+      <c r="M234" s="6"/>
+      <c r="N234" s="6"/>
+      <c r="O234" s="6"/>
+      <c r="P234" s="6"/>
+      <c r="Q234" s="6"/>
+      <c r="R234" s="6"/>
+      <c r="S234" s="6"/>
+      <c r="T234" s="6"/>
+      <c r="U234" s="6"/>
+      <c r="V234" s="6"/>
+      <c r="W234" s="6"/>
+      <c r="X234" s="6"/>
+      <c r="Y234" s="6"/>
+      <c r="Z234" s="6"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="16"/>
+      <c r="B235" s="16"/>
+      <c r="C235" s="17"/>
+      <c r="D235" s="18"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+      <c r="I235" s="6"/>
+      <c r="J235" s="6"/>
+      <c r="K235" s="6"/>
+      <c r="L235" s="6"/>
+      <c r="M235" s="6"/>
+      <c r="N235" s="6"/>
+      <c r="O235" s="6"/>
+      <c r="P235" s="6"/>
+      <c r="Q235" s="6"/>
+      <c r="R235" s="6"/>
+      <c r="S235" s="6"/>
+      <c r="T235" s="6"/>
+      <c r="U235" s="6"/>
+      <c r="V235" s="6"/>
+      <c r="W235" s="6"/>
+      <c r="X235" s="6"/>
+      <c r="Y235" s="6"/>
+      <c r="Z235" s="6"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="16"/>
+      <c r="B236" s="16"/>
+      <c r="C236" s="17"/>
+      <c r="D236" s="18"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="6"/>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+      <c r="M236" s="6"/>
+      <c r="N236" s="6"/>
+      <c r="O236" s="6"/>
+      <c r="P236" s="6"/>
+      <c r="Q236" s="6"/>
+      <c r="R236" s="6"/>
+      <c r="S236" s="6"/>
+      <c r="T236" s="6"/>
+      <c r="U236" s="6"/>
+      <c r="V236" s="6"/>
+      <c r="W236" s="6"/>
+      <c r="X236" s="6"/>
+      <c r="Y236" s="6"/>
+      <c r="Z236" s="6"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="16"/>
+      <c r="B237" s="16"/>
+      <c r="C237" s="17"/>
+      <c r="D237" s="18"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
+      <c r="I237" s="6"/>
+      <c r="J237" s="6"/>
+      <c r="K237" s="6"/>
+      <c r="L237" s="6"/>
+      <c r="M237" s="6"/>
+      <c r="N237" s="6"/>
+      <c r="O237" s="6"/>
+      <c r="P237" s="6"/>
+      <c r="Q237" s="6"/>
+      <c r="R237" s="6"/>
+      <c r="S237" s="6"/>
+      <c r="T237" s="6"/>
+      <c r="U237" s="6"/>
+      <c r="V237" s="6"/>
+      <c r="W237" s="6"/>
+      <c r="X237" s="6"/>
+      <c r="Y237" s="6"/>
+      <c r="Z237" s="6"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="16"/>
+      <c r="B238" s="16"/>
+      <c r="C238" s="17"/>
+      <c r="D238" s="18"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6"/>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+      <c r="M238" s="6"/>
+      <c r="N238" s="6"/>
+      <c r="O238" s="6"/>
+      <c r="P238" s="6"/>
+      <c r="Q238" s="6"/>
+      <c r="R238" s="6"/>
+      <c r="S238" s="6"/>
+      <c r="T238" s="6"/>
+      <c r="U238" s="6"/>
+      <c r="V238" s="6"/>
+      <c r="W238" s="6"/>
+      <c r="X238" s="6"/>
+      <c r="Y238" s="6"/>
+      <c r="Z238" s="6"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="16"/>
+      <c r="B239" s="16"/>
+      <c r="C239" s="17"/>
+      <c r="D239" s="18"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+      <c r="I239" s="6"/>
+      <c r="J239" s="6"/>
+      <c r="K239" s="6"/>
+      <c r="L239" s="6"/>
+      <c r="M239" s="6"/>
+      <c r="N239" s="6"/>
+      <c r="O239" s="6"/>
+      <c r="P239" s="6"/>
+      <c r="Q239" s="6"/>
+      <c r="R239" s="6"/>
+      <c r="S239" s="6"/>
+      <c r="T239" s="6"/>
+      <c r="U239" s="6"/>
+      <c r="V239" s="6"/>
+      <c r="W239" s="6"/>
+      <c r="X239" s="6"/>
+      <c r="Y239" s="6"/>
+      <c r="Z239" s="6"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="16"/>
+      <c r="B240" s="16"/>
+      <c r="C240" s="17"/>
+      <c r="D240" s="18"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+      <c r="I240" s="6"/>
+      <c r="J240" s="6"/>
+      <c r="K240" s="6"/>
+      <c r="L240" s="6"/>
+      <c r="M240" s="6"/>
+      <c r="N240" s="6"/>
+      <c r="O240" s="6"/>
+      <c r="P240" s="6"/>
+      <c r="Q240" s="6"/>
+      <c r="R240" s="6"/>
+      <c r="S240" s="6"/>
+      <c r="T240" s="6"/>
+      <c r="U240" s="6"/>
+      <c r="V240" s="6"/>
+      <c r="W240" s="6"/>
+      <c r="X240" s="6"/>
+      <c r="Y240" s="6"/>
+      <c r="Z240" s="6"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="16"/>
+      <c r="B241" s="16"/>
+      <c r="C241" s="17"/>
+      <c r="D241" s="18"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
+      <c r="L241" s="6"/>
+      <c r="M241" s="6"/>
+      <c r="N241" s="6"/>
+      <c r="O241" s="6"/>
+      <c r="P241" s="6"/>
+      <c r="Q241" s="6"/>
+      <c r="R241" s="6"/>
+      <c r="S241" s="6"/>
+      <c r="T241" s="6"/>
+      <c r="U241" s="6"/>
+      <c r="V241" s="6"/>
+      <c r="W241" s="6"/>
+      <c r="X241" s="6"/>
+      <c r="Y241" s="6"/>
+      <c r="Z241" s="6"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="16"/>
+      <c r="B242" s="16"/>
+      <c r="C242" s="17"/>
+      <c r="D242" s="18"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
+      <c r="I242" s="6"/>
+      <c r="J242" s="6"/>
+      <c r="K242" s="6"/>
+      <c r="L242" s="6"/>
+      <c r="M242" s="6"/>
+      <c r="N242" s="6"/>
+      <c r="O242" s="6"/>
+      <c r="P242" s="6"/>
+      <c r="Q242" s="6"/>
+      <c r="R242" s="6"/>
+      <c r="S242" s="6"/>
+      <c r="T242" s="6"/>
+      <c r="U242" s="6"/>
+      <c r="V242" s="6"/>
+      <c r="W242" s="6"/>
+      <c r="X242" s="6"/>
+      <c r="Y242" s="6"/>
+      <c r="Z242" s="6"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="16"/>
+      <c r="B243" s="16"/>
+      <c r="C243" s="17"/>
+      <c r="D243" s="18"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+      <c r="I243" s="6"/>
+      <c r="J243" s="6"/>
+      <c r="K243" s="6"/>
+      <c r="L243" s="6"/>
+      <c r="M243" s="6"/>
+      <c r="N243" s="6"/>
+      <c r="O243" s="6"/>
+      <c r="P243" s="6"/>
+      <c r="Q243" s="6"/>
+      <c r="R243" s="6"/>
+      <c r="S243" s="6"/>
+      <c r="T243" s="6"/>
+      <c r="U243" s="6"/>
+      <c r="V243" s="6"/>
+      <c r="W243" s="6"/>
+      <c r="X243" s="6"/>
+      <c r="Y243" s="6"/>
+      <c r="Z243" s="6"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="16"/>
+      <c r="B244" s="16"/>
+      <c r="C244" s="17"/>
+      <c r="D244" s="18"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+      <c r="I244" s="6"/>
+      <c r="J244" s="6"/>
+      <c r="K244" s="6"/>
+      <c r="L244" s="6"/>
+      <c r="M244" s="6"/>
+      <c r="N244" s="6"/>
+      <c r="O244" s="6"/>
+      <c r="P244" s="6"/>
+      <c r="Q244" s="6"/>
+      <c r="R244" s="6"/>
+      <c r="S244" s="6"/>
+      <c r="T244" s="6"/>
+      <c r="U244" s="6"/>
+      <c r="V244" s="6"/>
+      <c r="W244" s="6"/>
+      <c r="X244" s="6"/>
+      <c r="Y244" s="6"/>
+      <c r="Z244" s="6"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="16"/>
+      <c r="B245" s="16"/>
+      <c r="C245" s="17"/>
+      <c r="D245" s="18"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+      <c r="I245" s="6"/>
+      <c r="J245" s="6"/>
+      <c r="K245" s="6"/>
+      <c r="L245" s="6"/>
+      <c r="M245" s="6"/>
+      <c r="N245" s="6"/>
+      <c r="O245" s="6"/>
+      <c r="P245" s="6"/>
+      <c r="Q245" s="6"/>
+      <c r="R245" s="6"/>
+      <c r="S245" s="6"/>
+      <c r="T245" s="6"/>
+      <c r="U245" s="6"/>
+      <c r="V245" s="6"/>
+      <c r="W245" s="6"/>
+      <c r="X245" s="6"/>
+      <c r="Y245" s="6"/>
+      <c r="Z245" s="6"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="16"/>
+      <c r="B246" s="16"/>
+      <c r="C246" s="17"/>
+      <c r="D246" s="18"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+      <c r="I246" s="6"/>
+      <c r="J246" s="6"/>
+      <c r="K246" s="6"/>
+      <c r="L246" s="6"/>
+      <c r="M246" s="6"/>
+      <c r="N246" s="6"/>
+      <c r="O246" s="6"/>
+      <c r="P246" s="6"/>
+      <c r="Q246" s="6"/>
+      <c r="R246" s="6"/>
+      <c r="S246" s="6"/>
+      <c r="T246" s="6"/>
+      <c r="U246" s="6"/>
+      <c r="V246" s="6"/>
+      <c r="W246" s="6"/>
+      <c r="X246" s="6"/>
+      <c r="Y246" s="6"/>
+      <c r="Z246" s="6"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/translations_for_ui.xlsx
+++ b/translations_for_ui.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="503">
   <si>
     <t>_name</t>
   </si>
@@ -1493,6 +1493,33 @@
   </si>
   <si>
     <t>Remove item from the cart?</t>
+  </si>
+  <si>
+    <t>Показывать только товары в наличии</t>
+  </si>
+  <si>
+    <t>仅显示库存商品</t>
+  </si>
+  <si>
+    <t>Show only goods in stock</t>
+  </si>
+  <si>
+    <t>Чат</t>
+  </si>
+  <si>
+    <t>聊天</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Ничего не найдено. Попробуйте изменить поисковый запрос.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">什么都没找到。 请尝试更改搜索请求 </t>
+  </si>
+  <si>
+    <t>Nothing found. Please try to change search request</t>
   </si>
 </sst>
 </file>
@@ -6612,8 +6639,8 @@
         <v>258</v>
       </c>
       <c r="D129" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A129,""ru"",""en"")"),"To main")</f>
-        <v>To main</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A129,""ru"",""en"")"),"To the main")</f>
+        <v>To the main</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
@@ -6649,8 +6676,8 @@
         <v>260</v>
       </c>
       <c r="D130" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A130,""ru"",""en"")"),"Exit")</f>
-        <v>Exit</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A130,""ru"",""en"")"),"Output")</f>
+        <v>Output</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -7014,8 +7041,8 @@
         <v>286</v>
       </c>
       <c r="D140" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A140,""ru"",""en"")"),"Error")</f>
-        <v>Error</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A140,""ru"",""en"")"),"Mistake")</f>
+        <v>Mistake</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
@@ -8298,8 +8325,8 @@
         <v>368</v>
       </c>
       <c r="D175" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A175,""ru"",""en"")"),"Photo")</f>
-        <v>Photo</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A175,""ru"",""en"")"),"A photo")</f>
+        <v>A photo</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
@@ -8592,8 +8619,8 @@
         <v>258</v>
       </c>
       <c r="D183" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A183,""ru"",""en"")"),"To main")</f>
-        <v>To main</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(A183,""ru"",""en"")"),"To the main")</f>
+        <v>To the main</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
@@ -9954,10 +9981,18 @@
       <c r="Z220" s="6"/>
     </row>
     <row r="221">
-      <c r="A221" s="16"/>
-      <c r="B221" s="16"/>
-      <c r="C221" s="17"/>
-      <c r="D221" s="18"/>
+      <c r="A221" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="B221" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="C221" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="D221" s="18" t="s">
+        <v>496</v>
+      </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
@@ -9982,10 +10017,18 @@
       <c r="Z221" s="6"/>
     </row>
     <row r="222">
-      <c r="A222" s="16"/>
-      <c r="B222" s="16"/>
-      <c r="C222" s="17"/>
-      <c r="D222" s="18"/>
+      <c r="A222" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="B222" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="D222" s="18" t="s">
+        <v>499</v>
+      </c>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
@@ -10010,10 +10053,18 @@
       <c r="Z222" s="6"/>
     </row>
     <row r="223">
-      <c r="A223" s="16"/>
-      <c r="B223" s="16"/>
-      <c r="C223" s="17"/>
-      <c r="D223" s="18"/>
+      <c r="A223" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="B223" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="C223" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="D223" s="18" t="s">
+        <v>502</v>
+      </c>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
